--- a/java.xlsx
+++ b/java.xlsx
@@ -1,24 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/winnie/Development/research/shared_ptp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xdong\OneDrive\Paper\git_hub\shared_ptp\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="27" documentId="11_33E97E01793A7F03B72BD9B8ECDFDE0FC9F8CBB3" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{5D7A2A41-7E9D-4FA5-A3DC-C3AF81B45F03}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="460" windowWidth="24660" windowHeight="15540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="derby" sheetId="8" r:id="rId1"/>
     <sheet name="compiler" sheetId="9" r:id="rId2"/>
+    <sheet name="data-superpg" sheetId="10" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -28,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="80">
   <si>
     <t>Ms_L</t>
   </si>
@@ -208,17 +216,77 @@
   </si>
   <si>
     <t>M_L, PreTouch</t>
+  </si>
+  <si>
+    <t>cpuset -c -l 0,1,2,3,4,5 java -XX:+AlwaysPreTouch -XX:CodeCacheExpansionSize=2m -jar SPECjvm2008.jar -ikv -ict -wt 0 -crf false -ops 500 -Dspecjvm.hardware.threads.over    ride=6 compiler.compiler</t>
+  </si>
+  <si>
+    <t>Run on 3 cores/6 hyperthreads</t>
+  </si>
+  <si>
+    <t>CPU_CLK_UNHALTED.THREAD_P</t>
+  </si>
+  <si>
+    <t>DTLB_LOAD_MISSES.WALK_COMPLETED</t>
+  </si>
+  <si>
+    <t>DTLB_LOAD_MISSES.WALK_PENDING</t>
+  </si>
+  <si>
+    <t>DTLB_STORE_MISSES.WALK_COMPLETED</t>
+  </si>
+  <si>
+    <t>DTLB_STORE_MISSES.WALK_PENDING</t>
+  </si>
+  <si>
+    <t>ITLB_MISSES.WALK_COMPLETED</t>
+  </si>
+  <si>
+    <t>ITLB_MISSES.WALK_PENDING</t>
+  </si>
+  <si>
+    <t>ICACHE_64B.IFTAG_STALL</t>
+  </si>
+  <si>
+    <t>CPU_CLK_UNHALTED.THREAD_P (os + usr)</t>
+  </si>
+  <si>
+    <t>INST_RETIRED.ANY_P</t>
+  </si>
+  <si>
+    <t>INST_RETIRED.ANY_P (os + user)</t>
+  </si>
+  <si>
+    <t>CYCLE_ACTIVITY.STALLS_L3_MISS</t>
+  </si>
+  <si>
+    <t>default freebsd</t>
+  </si>
+  <si>
+    <t>default freebsd + disabling data superpages</t>
+  </si>
+  <si>
+    <t>our kernel: first-touch data superpage promotion</t>
+  </si>
+  <si>
+    <t>Compiler.compiler</t>
+  </si>
+  <si>
+    <t>Col C/Col B</t>
+  </si>
+  <si>
+    <t>Col D/Col B</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="#,##0.0000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -271,6 +339,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -301,7 +383,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -321,13 +403,20 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Comma" xfId="5" builtinId="3"/>
@@ -346,6 +435,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -613,55 +705,55 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V117"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="F2" sqref="F2:G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="39.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="39.1875" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" style="1" customWidth="1"/>
-    <col min="5" max="7" width="18.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.8125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.3125" style="1" customWidth="1"/>
+    <col min="5" max="7" width="18.8125" style="1" customWidth="1"/>
     <col min="8" max="8" width="15.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="19.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="19.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="19.3125" style="1" customWidth="1"/>
     <col min="12" max="12" width="13.5" style="1" customWidth="1"/>
-    <col min="13" max="13" width="20.33203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.6640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="20.3125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="13.6875" style="1" customWidth="1"/>
     <col min="15" max="15" width="19" style="1" customWidth="1"/>
-    <col min="16" max="16" width="10.6640625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="10.83203125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="10.6640625" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="10.83203125" style="1"/>
+    <col min="16" max="16" width="10.6875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="10.8125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="10.6875" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="10.8125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B1" s="15" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="B1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15" t="s">
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15" t="s">
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
       <c r="P1" s="1" t="s">
         <v>18</v>
       </c>
@@ -672,35 +764,35 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B2" s="15" t="s">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="B2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15" t="s">
+      <c r="C2" s="16"/>
+      <c r="D2" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="15"/>
+      <c r="E2" s="16"/>
       <c r="F2" s="17" t="s">
         <v>59</v>
       </c>
       <c r="G2" s="17"/>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15" t="s">
+      <c r="I2" s="16"/>
+      <c r="J2" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15" t="s">
+      <c r="K2" s="16"/>
+      <c r="L2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15" t="s">
+      <c r="M2" s="16"/>
+      <c r="N2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="O2" s="15"/>
+      <c r="O2" s="16"/>
       <c r="P2" s="1" t="s">
         <v>17</v>
       </c>
@@ -711,7 +803,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.5">
       <c r="B3" s="7" t="s">
         <v>32</v>
       </c>
@@ -724,10 +816,10 @@
       <c r="E3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="15" t="s">
         <v>31</v>
       </c>
       <c r="H3" s="7" t="s">
@@ -755,12 +847,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A4" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A5" s="5" t="s">
         <v>1</v>
       </c>
@@ -791,11 +883,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="R5" s="1" t="e">
-        <f>O5/M5</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+        <f t="shared" ref="R5:R17" si="2">O5/M5</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A6" s="5" t="s">
         <v>2</v>
       </c>
@@ -826,11 +918,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="R6" s="1" t="e">
-        <f>O6/M6</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A7" s="5" t="s">
         <v>3</v>
       </c>
@@ -861,11 +953,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="R7" s="1" t="e">
-        <f>O7/M7</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
@@ -896,11 +988,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="R8" s="1" t="e">
-        <f>O8/M8</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -931,11 +1023,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="R9" s="1" t="e">
-        <f>O9/M9</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A10" s="5" t="s">
         <v>6</v>
       </c>
@@ -966,11 +1058,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="R10" s="1" t="e">
-        <f>O10/M10</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A11" s="5" t="s">
         <v>7</v>
       </c>
@@ -1001,11 +1093,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="R11" s="1" t="e">
-        <f>O11/M11</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A12" s="5" t="s">
         <v>8</v>
       </c>
@@ -1036,11 +1128,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="R12" s="1" t="e">
-        <f>O12/M12</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A13" s="5" t="s">
         <v>9</v>
       </c>
@@ -1071,11 +1163,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="R13" s="1" t="e">
-        <f>O13/M13</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1106,11 +1198,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="R14" s="1" t="e">
-        <f>O14/M14</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A15" s="5" t="s">
         <v>11</v>
       </c>
@@ -1141,11 +1233,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="R15" s="1" t="e">
-        <f>O15/M15</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A16" s="5" t="s">
         <v>12</v>
       </c>
@@ -1176,11 +1268,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="R16" s="1" t="e">
-        <f>O16/M16</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A17" s="5" t="s">
         <v>13</v>
       </c>
@@ -1211,11 +1303,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="R17" s="1" t="e">
-        <f>O17/M17</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A18" s="5" t="s">
         <v>39</v>
       </c>
@@ -1238,7 +1330,7 @@
         <v>458725084534</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A19" s="1" t="s">
         <v>40</v>
       </c>
@@ -1261,7 +1353,7 @@
         <v>271847293817</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A20" s="9" t="s">
         <v>41</v>
       </c>
@@ -1284,7 +1376,7 @@
         <v>111983480151</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A21" s="9" t="s">
         <v>42</v>
       </c>
@@ -1307,7 +1399,7 @@
         <v>2409718143504</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A22" s="9" t="s">
         <v>43</v>
       </c>
@@ -1330,7 +1422,7 @@
         <v>244952829492</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A23" s="9" t="s">
         <v>44</v>
       </c>
@@ -1353,7 +1445,7 @@
         <v>182887739872</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A24" s="9" t="s">
         <v>45</v>
       </c>
@@ -1376,7 +1468,7 @@
         <v>97701792708</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A25" s="9" t="s">
         <v>46</v>
       </c>
@@ -1399,7 +1491,7 @@
         <v>708383762926</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A26" s="9" t="s">
         <v>47</v>
       </c>
@@ -1422,7 +1514,7 @@
         <v>330072436143</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A27" s="9" t="s">
         <v>48</v>
       </c>
@@ -1445,7 +1537,7 @@
         <v>50447293071</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A28" s="9" t="s">
         <v>49</v>
       </c>
@@ -1468,7 +1560,7 @@
         <v>110175135069</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A29" s="9" t="s">
         <v>50</v>
       </c>
@@ -1491,7 +1583,7 @@
         <v>6453717721</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A30" s="9" t="s">
         <v>51</v>
       </c>
@@ -1514,7 +1606,7 @@
         <v>47890020045</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A31" s="9" t="s">
         <v>52</v>
       </c>
@@ -1537,7 +1629,7 @@
         <v>45750610235</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A32" s="9" t="s">
         <v>53</v>
       </c>
@@ -1560,7 +1652,7 @@
         <v>531083806732</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A33" s="9" t="s">
         <v>54</v>
       </c>
@@ -1583,7 +1675,7 @@
         <v>54131109844</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A34" s="1" t="s">
         <v>55</v>
       </c>
@@ -1606,7 +1698,7 @@
         <v>5938243864</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A35" s="1" t="s">
         <v>56</v>
       </c>
@@ -1629,7 +1721,7 @@
         <v>4133817695110</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A36" s="1" t="s">
         <v>57</v>
       </c>
@@ -1652,7 +1744,7 @@
         <v>282879</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A38" s="8" t="s">
         <v>21</v>
       </c>
@@ -1661,59 +1753,59 @@
         <v>20814.476875</v>
       </c>
       <c r="C38" s="1">
-        <f t="shared" ref="C38:M38" si="2">C6+C10</f>
+        <f t="shared" ref="C38:M38" si="3">C6+C10</f>
         <v>33303163</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6379.3881250000004</v>
       </c>
       <c r="E38" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10207021</v>
       </c>
       <c r="F38" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3754.8581249999997</v>
       </c>
       <c r="G38" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6007773</v>
       </c>
       <c r="H38" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I38" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J38" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K38" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L38" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M38" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P38" s="1">
-        <f t="shared" ref="P38:P41" si="3">E38/C38</f>
+        <f t="shared" ref="P38:P41" si="4">E38/C38</f>
         <v>0.30648803538570796</v>
       </c>
       <c r="Q38" s="1" t="e">
-        <f t="shared" ref="Q38:Q41" si="4">K38/I38</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+        <f t="shared" ref="Q38:Q41" si="5">K38/I38</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A39" s="8" t="s">
         <v>22</v>
       </c>
@@ -1722,59 +1814,59 @@
         <v>818.67750000000001</v>
       </c>
       <c r="C39" s="1">
-        <f t="shared" ref="C39:M39" si="5">C7+C11</f>
+        <f t="shared" ref="C39:M39" si="6">C7+C11</f>
         <v>1309884</v>
       </c>
       <c r="D39" s="1">
+        <f t="shared" si="6"/>
+        <v>611.37937499999998</v>
+      </c>
+      <c r="E39" s="1">
+        <f t="shared" si="6"/>
+        <v>978207</v>
+      </c>
+      <c r="F39" s="1">
+        <f t="shared" si="6"/>
+        <v>292.80562500000002</v>
+      </c>
+      <c r="G39" s="1">
+        <f t="shared" si="6"/>
+        <v>468489</v>
+      </c>
+      <c r="H39" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I39" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J39" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K39" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L39" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M39" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P39" s="1">
+        <f t="shared" si="4"/>
+        <v>0.74678902864681151</v>
+      </c>
+      <c r="Q39" s="1" t="e">
         <f t="shared" si="5"/>
-        <v>611.37937499999998</v>
-      </c>
-      <c r="E39" s="1">
-        <f t="shared" si="5"/>
-        <v>978207</v>
-      </c>
-      <c r="F39" s="1">
-        <f t="shared" si="5"/>
-        <v>292.80562500000002</v>
-      </c>
-      <c r="G39" s="1">
-        <f t="shared" si="5"/>
-        <v>468489</v>
-      </c>
-      <c r="H39" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I39" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J39" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K39" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L39" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M39" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P39" s="1">
-        <f t="shared" si="3"/>
-        <v>0.74678902864681151</v>
-      </c>
-      <c r="Q39" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A40" s="8" t="s">
         <v>23</v>
       </c>
@@ -1783,59 +1875,59 @@
         <v>21568.963124999998</v>
       </c>
       <c r="C40" s="1">
-        <f t="shared" ref="C40:M40" si="6">C8+C12</f>
+        <f t="shared" ref="C40:M40" si="7">C8+C12</f>
         <v>34510341</v>
       </c>
       <c r="D40" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6922.5068749999991</v>
       </c>
       <c r="E40" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>11076011</v>
       </c>
       <c r="F40" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4036.9893750000001</v>
       </c>
       <c r="G40" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6459183</v>
       </c>
       <c r="H40" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I40" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J40" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K40" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L40" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M40" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P40" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.32094759654794486</v>
       </c>
       <c r="Q40" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A41" s="1" t="s">
         <v>24</v>
       </c>
@@ -1844,59 +1936,59 @@
         <v>4836100.6481250003</v>
       </c>
       <c r="C41" s="1">
-        <f t="shared" ref="C41:M41" si="7">C9+C13</f>
+        <f t="shared" ref="C41:M41" si="8">C9+C13</f>
         <v>7737761037</v>
       </c>
       <c r="D41" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1126816.1125</v>
       </c>
       <c r="E41" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1802905780</v>
       </c>
       <c r="F41" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>614239.80812499998</v>
       </c>
       <c r="G41" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>982783693</v>
       </c>
       <c r="H41" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I41" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J41" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K41" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L41" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M41" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P41" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.23300096389368505</v>
       </c>
       <c r="Q41" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A43" s="14" t="s">
         <v>29</v>
       </c>
@@ -1905,51 +1997,51 @@
         <v>4.2349100127005004E-2</v>
       </c>
       <c r="C43" s="13">
-        <f t="shared" ref="C43:M43" si="8">C17/C5</f>
+        <f t="shared" ref="C43:M43" si="9">C17/C5</f>
         <v>4.2349100127005004E-2</v>
       </c>
       <c r="D43" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.5661144943671986E-3</v>
       </c>
       <c r="E43" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.5661144943671986E-3</v>
       </c>
       <c r="F43" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.8143099181454707E-3</v>
       </c>
       <c r="G43" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.8143099181454707E-3</v>
       </c>
       <c r="H43" s="13" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I43" s="13" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J43" s="13" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K43" s="13" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L43" s="13" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M43" s="13" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A44" s="14" t="s">
         <v>30</v>
       </c>
@@ -1958,81 +2050,81 @@
         <v>8.9751331774241688E-2</v>
       </c>
       <c r="C44" s="13">
-        <f t="shared" ref="C44:M44" si="9">C41/C5</f>
+        <f t="shared" ref="C44:M44" si="10">C41/C5</f>
         <v>8.9751331774241688E-2</v>
       </c>
       <c r="D44" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.1521042020301015E-2</v>
       </c>
       <c r="E44" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.1521042020301013E-2</v>
       </c>
       <c r="F44" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.6667122154381144E-3</v>
       </c>
       <c r="G44" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.6667122154381152E-3</v>
       </c>
       <c r="H44" s="13" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I44" s="13" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J44" s="13" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K44" s="13" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L44" s="13" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M44" s="13" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A45" s="8"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A46" s="9"/>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A49" s="9"/>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A50" s="5"/>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A51" s="5"/>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A53" s="5"/>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A55" s="8"/>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A56" s="9"/>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A58" s="9"/>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A59" s="9"/>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A61" s="9"/>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
@@ -2050,7 +2142,7 @@
       <c r="U61" s="6"/>
       <c r="V61" s="6"/>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.5">
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
@@ -2069,7 +2161,7 @@
       <c r="U62" s="6"/>
       <c r="V62" s="6"/>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A63" s="5"/>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
@@ -2090,7 +2182,7 @@
       <c r="U63" s="6"/>
       <c r="V63" s="6"/>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A64" s="5"/>
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
@@ -2111,7 +2203,7 @@
       <c r="U64" s="6"/>
       <c r="V64" s="6"/>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A65" s="5"/>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
@@ -2132,7 +2224,7 @@
       <c r="U65" s="6"/>
       <c r="V65" s="6"/>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A66" s="5"/>
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
@@ -2153,7 +2245,7 @@
       <c r="U66" s="6"/>
       <c r="V66" s="6"/>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A67" s="5"/>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
@@ -2174,7 +2266,7 @@
       <c r="U67" s="6"/>
       <c r="V67" s="6"/>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A68" s="5"/>
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
@@ -2195,7 +2287,7 @@
       <c r="U68" s="6"/>
       <c r="V68" s="6"/>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.5">
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
@@ -2215,7 +2307,7 @@
       <c r="U69" s="6"/>
       <c r="V69" s="6"/>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A70" s="5"/>
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
@@ -2236,7 +2328,7 @@
       <c r="U70" s="6"/>
       <c r="V70" s="6"/>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.5">
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
@@ -2258,7 +2350,7 @@
       <c r="U71" s="6"/>
       <c r="V71" s="6"/>
     </row>
-    <row r="72" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A72" s="11"/>
       <c r="B72" s="12"/>
       <c r="C72" s="12"/>
@@ -2282,7 +2374,7 @@
       <c r="U72" s="12"/>
       <c r="V72" s="12"/>
     </row>
-    <row r="73" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B73" s="12"/>
       <c r="C73" s="12"/>
       <c r="D73" s="12"/>
@@ -2305,7 +2397,7 @@
       <c r="U73" s="12"/>
       <c r="V73" s="12"/>
     </row>
-    <row r="74" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B74" s="12"/>
       <c r="C74" s="12"/>
       <c r="D74" s="12"/>
@@ -2328,7 +2420,7 @@
       <c r="U74" s="12"/>
       <c r="V74" s="12"/>
     </row>
-    <row r="75" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A75" s="14"/>
       <c r="B75" s="12"/>
       <c r="C75" s="12"/>
@@ -2352,7 +2444,7 @@
       <c r="U75" s="12"/>
       <c r="V75" s="12"/>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A76" s="9"/>
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
@@ -2375,7 +2467,7 @@
       <c r="U76" s="6"/>
       <c r="V76" s="6"/>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.5">
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
@@ -2397,7 +2489,7 @@
       <c r="U77" s="6"/>
       <c r="V77" s="6"/>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A78" s="5"/>
       <c r="B78" s="6"/>
       <c r="C78" s="6"/>
@@ -2420,7 +2512,7 @@
       <c r="U78" s="6"/>
       <c r="V78" s="6"/>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A79" s="5"/>
       <c r="B79" s="6"/>
       <c r="C79" s="6"/>
@@ -2443,7 +2535,7 @@
       <c r="U79" s="6"/>
       <c r="V79" s="6"/>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A80" s="5"/>
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
@@ -2466,7 +2558,7 @@
       <c r="U80" s="6"/>
       <c r="V80" s="6"/>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A81" s="5"/>
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
@@ -2489,7 +2581,7 @@
       <c r="U81" s="6"/>
       <c r="V81" s="6"/>
     </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.5">
       <c r="B82" s="6"/>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
@@ -2511,7 +2603,7 @@
       <c r="U82" s="6"/>
       <c r="V82" s="6"/>
     </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A83" s="5"/>
       <c r="B83" s="6"/>
       <c r="C83" s="6"/>
@@ -2528,28 +2620,28 @@
       <c r="O83" s="6"/>
       <c r="P83" s="6"/>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A84" s="5"/>
     </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A85" s="5"/>
     </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A86" s="5"/>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A88" s="5"/>
     </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A89" s="5"/>
     </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A90" s="5"/>
     </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A91" s="5"/>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.5">
       <c r="B116" s="6"/>
       <c r="C116" s="6"/>
       <c r="D116" s="6"/>
@@ -2567,7 +2659,7 @@
       <c r="P116" s="6"/>
       <c r="Q116" s="6"/>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A117" s="10"/>
       <c r="B117" s="6"/>
       <c r="C117" s="6"/>
@@ -2588,6 +2680,9 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="H2:I2"/>
@@ -2595,68 +2690,65 @@
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="39.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="39.1875" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="39.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.8125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.3125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.8125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="39.1875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.1875" style="1" customWidth="1"/>
     <col min="8" max="8" width="19.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="15.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="19.83203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16.1640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="19.83203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="19.8125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.1875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="19.8125" style="1" customWidth="1"/>
     <col min="13" max="13" width="13.5" style="1" customWidth="1"/>
-    <col min="14" max="14" width="20.33203125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="20.3125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="13.6875" style="1" customWidth="1"/>
     <col min="16" max="16" width="19" style="1" customWidth="1"/>
-    <col min="17" max="17" width="10.6640625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="10.83203125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="10.6640625" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="10.83203125" style="1"/>
+    <col min="17" max="17" width="10.6875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="10.8125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="10.6875" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="10.8125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B1" s="15" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.5">
+      <c r="B1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15" t="s">
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
       <c r="Q1" s="1" t="s">
         <v>18</v>
       </c>
@@ -2667,36 +2759,36 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B2" s="15" t="s">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.5">
+      <c r="B2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15" t="s">
+      <c r="C2" s="16"/>
+      <c r="D2" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="15"/>
+      <c r="E2" s="16"/>
       <c r="F2" s="4"/>
       <c r="G2" s="17" t="s">
         <v>59</v>
       </c>
       <c r="H2" s="17"/>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15" t="s">
+      <c r="J2" s="16"/>
+      <c r="K2" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15" t="s">
+      <c r="L2" s="16"/>
+      <c r="M2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15" t="s">
+      <c r="N2" s="16"/>
+      <c r="O2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="P2" s="15"/>
+      <c r="P2" s="16"/>
       <c r="Q2" s="1" t="s">
         <v>17</v>
       </c>
@@ -2707,7 +2799,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.5">
       <c r="B3" s="7" t="s">
         <v>32</v>
       </c>
@@ -2721,10 +2813,10 @@
         <v>36</v>
       </c>
       <c r="F3" s="8"/>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="15" t="s">
         <v>36</v>
       </c>
       <c r="I3" s="7" t="s">
@@ -2752,12 +2844,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A4" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A5" s="5" t="s">
         <v>1</v>
       </c>
@@ -2795,19 +2887,19 @@
         <v>7211117854811</v>
       </c>
       <c r="Q5" s="1">
-        <f t="shared" ref="Q5:Q20" si="0">E5/C5</f>
+        <f t="shared" ref="Q5:Q17" si="0">E5/C5</f>
         <v>0.96508080849320199</v>
       </c>
       <c r="R5" s="1">
-        <f t="shared" ref="R5:R20" si="1">L5/J5</f>
+        <f t="shared" ref="R5:R17" si="1">L5/J5</f>
         <v>0.97582294108390133</v>
       </c>
       <c r="S5" s="1" t="e">
-        <f>P5/N5</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+        <f t="shared" ref="S5:S17" si="2">P5/N5</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A6" s="5" t="s">
         <v>2</v>
       </c>
@@ -2853,11 +2945,11 @@
         <v>1.0090698896439827</v>
       </c>
       <c r="S6" s="1" t="e">
-        <f>P6/N6</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A7" s="5" t="s">
         <v>3</v>
       </c>
@@ -2903,11 +2995,11 @@
         <v>0.13748845036073357</v>
       </c>
       <c r="S7" s="1" t="e">
-        <f>P7/N7</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
@@ -2953,11 +3045,11 @@
         <v>0.97629957228114794</v>
       </c>
       <c r="S8" s="1" t="e">
-        <f>P8/N8</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -3003,11 +3095,11 @@
         <v>0.94372648184885011</v>
       </c>
       <c r="S9" s="1" t="e">
-        <f>P9/N9</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A10" s="5" t="s">
         <v>6</v>
       </c>
@@ -3053,11 +3145,11 @@
         <v>0.65312235214724412</v>
       </c>
       <c r="S10" s="1" t="e">
-        <f>P10/N10</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A11" s="5" t="s">
         <v>7</v>
       </c>
@@ -3103,11 +3195,11 @@
         <v>0.29613526888380765</v>
       </c>
       <c r="S11" s="1" t="e">
-        <f>P11/N11</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A12" s="5" t="s">
         <v>8</v>
       </c>
@@ -3153,11 +3245,11 @@
         <v>0.64184759675523451</v>
       </c>
       <c r="S12" s="1" t="e">
-        <f>P12/N12</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A13" s="5" t="s">
         <v>9</v>
       </c>
@@ -3203,11 +3295,11 @@
         <v>0.558856436975388</v>
       </c>
       <c r="S13" s="1" t="e">
-        <f>P13/N13</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
@@ -3253,11 +3345,11 @@
         <v>8.4584269456539504E-2</v>
       </c>
       <c r="S14" s="1" t="e">
-        <f>P14/N14</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A15" s="5" t="s">
         <v>11</v>
       </c>
@@ -3303,11 +3395,11 @@
         <v>1.5240392100249947</v>
       </c>
       <c r="S15" s="1" t="e">
-        <f>P15/N15</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A16" s="5" t="s">
         <v>12</v>
       </c>
@@ -3353,11 +3445,11 @@
         <v>8.5465154679356711E-2</v>
       </c>
       <c r="S16" s="1" t="e">
-        <f>P16/N16</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A17" s="5" t="s">
         <v>13</v>
       </c>
@@ -3403,11 +3495,11 @@
         <v>6.3625394151383186E-2</v>
       </c>
       <c r="S17" s="1" t="e">
-        <f>P17/N17</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A18" s="5" t="s">
         <v>26</v>
       </c>
@@ -3421,7 +3513,7 @@
         <v>791034119160</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
@@ -3435,7 +3527,7 @@
         <v>502860618375</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A20" s="9" t="s">
         <v>28</v>
       </c>
@@ -3449,7 +3541,7 @@
         <v>174590026433</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.5">
       <c r="F21" s="1" t="s">
         <v>42</v>
       </c>
@@ -3460,7 +3552,7 @@
         <v>3156245704451</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A22" s="8" t="s">
         <v>21</v>
       </c>
@@ -3469,15 +3561,15 @@
         <v>154088.50880000001</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" ref="C22:L25" si="2">C6+C10</f>
+        <f t="shared" ref="C22:L25" si="3">C6+C10</f>
         <v>385221272</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>98118.789199999999</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>245296973</v>
       </c>
       <c r="F22" s="1" t="s">
@@ -3490,31 +3582,31 @@
         <v>445355266496</v>
       </c>
       <c r="I22" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>122346.8786</v>
       </c>
       <c r="J22" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>611734393</v>
       </c>
       <c r="K22" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>121667.2206</v>
       </c>
       <c r="L22" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>608336103</v>
       </c>
       <c r="Q22" s="1">
-        <f t="shared" ref="Q22:Q25" si="3">E22/C22</f>
+        <f t="shared" ref="Q22:Q25" si="4">E22/C22</f>
         <v>0.63676902297337312</v>
       </c>
       <c r="R22" s="1">
-        <f t="shared" ref="R22:R25" si="4">L22/J22</f>
+        <f t="shared" ref="R22:R25" si="5">L22/J22</f>
         <v>0.99444482762635844</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A23" s="8" t="s">
         <v>22</v>
       </c>
@@ -3523,15 +3615,15 @@
         <v>5069.7304000000004</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12674326</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>708.58759999999995</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1771469</v>
       </c>
       <c r="F23" s="1" t="s">
@@ -3544,31 +3636,31 @@
         <v>334502165065</v>
       </c>
       <c r="I23" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4735.6663999999992</v>
       </c>
       <c r="J23" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>23678332</v>
       </c>
       <c r="K23" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>675.17520000000002</v>
       </c>
       <c r="L23" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3375876</v>
       </c>
       <c r="Q23" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.13976830010526792</v>
       </c>
       <c r="R23" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.14257237376348975</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A24" s="8" t="s">
         <v>23</v>
       </c>
@@ -3577,15 +3669,15 @@
         <v>159071.22159999999</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>397678054</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>98736.824000000008</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>246842060</v>
       </c>
       <c r="F24" s="1" t="s">
@@ -3598,31 +3690,31 @@
         <v>157326062730</v>
       </c>
       <c r="I24" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>127054.518</v>
       </c>
       <c r="J24" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>635272590</v>
       </c>
       <c r="K24" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>122315.72960000001</v>
       </c>
       <c r="L24" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>611578648</v>
       </c>
       <c r="Q24" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.62070827775676052</v>
       </c>
       <c r="R24" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.96270271632528648</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -3631,15 +3723,15 @@
         <v>10613456.172400001</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>26533640431</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8544897.9384000003</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>21362244846</v>
       </c>
       <c r="F25" s="1" t="s">
@@ -3652,31 +3744,31 @@
         <v>985319193646</v>
       </c>
       <c r="I25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9465753.1374000013</v>
       </c>
       <c r="J25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>47328765687</v>
       </c>
       <c r="K25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8711055.9147999994</v>
       </c>
       <c r="L25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43555279574</v>
       </c>
       <c r="Q25" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.80510041211841732</v>
       </c>
       <c r="R25" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.92027076856482481</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.5">
       <c r="F26" s="1" t="s">
         <v>47</v>
       </c>
@@ -3687,7 +3779,7 @@
         <v>475730972659</v>
       </c>
     </row>
-    <row r="27" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A27" s="14" t="s">
         <v>29</v>
       </c>
@@ -3696,15 +3788,15 @@
         <v>3.3274615431080129E-3</v>
       </c>
       <c r="C27" s="13">
-        <f t="shared" ref="C27:L27" si="5">C17/C5</f>
+        <f t="shared" ref="C27:L27" si="6">C17/C5</f>
         <v>3.3274615431080133E-3</v>
       </c>
       <c r="D27" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.8211912697309377E-4</v>
       </c>
       <c r="E27" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.8211912697309377E-4</v>
       </c>
       <c r="F27" s="13" t="s">
@@ -3717,23 +3809,23 @@
         <v>93619747657</v>
       </c>
       <c r="I27" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.2044812458518384E-3</v>
       </c>
       <c r="J27" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.2044812458518384E-3</v>
       </c>
       <c r="K27" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.7413966735838525E-4</v>
       </c>
       <c r="L27" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.7413966735838525E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A28" s="14" t="s">
         <v>30</v>
       </c>
@@ -3742,15 +3834,15 @@
         <v>7.1577990896188074E-3</v>
       </c>
       <c r="C28" s="13">
-        <f t="shared" ref="C28:L28" si="6">C25/C5</f>
+        <f t="shared" ref="C28:L28" si="7">C25/C5</f>
         <v>7.1577990896188066E-3</v>
       </c>
       <c r="D28" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5.9712585165903505E-3</v>
       </c>
       <c r="E28" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5.9712585165903505E-3</v>
       </c>
       <c r="F28" s="13" t="s">
@@ -3763,23 +3855,23 @@
         <v>156788530334</v>
       </c>
       <c r="I28" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6.40462356328659E-3</v>
       </c>
       <c r="J28" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6.4046235632865892E-3</v>
       </c>
       <c r="K28" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6.0400177130569953E-3</v>
       </c>
       <c r="L28" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6.0400177130569953E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A29" s="8"/>
       <c r="F29" s="1" t="s">
         <v>50</v>
@@ -3791,7 +3883,7 @@
         <v>29492288946</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A30" s="9"/>
       <c r="F30" s="1" t="s">
         <v>51</v>
@@ -3803,7 +3895,7 @@
         <v>58904900510</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.5">
       <c r="F31" s="1" t="s">
         <v>52</v>
       </c>
@@ -3814,7 +3906,7 @@
         <v>193598560072</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.5">
       <c r="F32" s="1" t="s">
         <v>53</v>
       </c>
@@ -3825,7 +3917,7 @@
         <v>767133457325</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A33" s="9"/>
       <c r="F33" s="1" t="s">
         <v>54</v>
@@ -3837,7 +3929,7 @@
         <v>74897920846</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A34" s="5"/>
       <c r="F34" s="1" t="s">
         <v>55</v>
@@ -3849,7 +3941,7 @@
         <v>220777476455</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A35" s="5"/>
       <c r="F35" s="1" t="s">
         <v>56</v>
@@ -3861,7 +3953,7 @@
         <v>3952416079444</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.5">
       <c r="F36" s="1" t="s">
         <v>57</v>
       </c>
@@ -3872,22 +3964,22 @@
         <v>2609</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A37" s="5"/>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A39" s="8"/>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A40" s="9"/>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A42" s="9"/>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A43" s="9"/>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A45" s="9"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
@@ -3906,7 +3998,7 @@
       <c r="V45" s="6"/>
       <c r="W45" s="6"/>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.5">
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
@@ -3926,7 +4018,7 @@
       <c r="V46" s="6"/>
       <c r="W46" s="6"/>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A47" s="5"/>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
@@ -3948,7 +4040,7 @@
       <c r="V47" s="6"/>
       <c r="W47" s="6"/>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A48" s="5"/>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
@@ -3970,7 +4062,7 @@
       <c r="V48" s="6"/>
       <c r="W48" s="6"/>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A49" s="5"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
@@ -3992,7 +4084,7 @@
       <c r="V49" s="6"/>
       <c r="W49" s="6"/>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A50" s="5"/>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
@@ -4014,7 +4106,7 @@
       <c r="V50" s="6"/>
       <c r="W50" s="6"/>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A51" s="5"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
@@ -4036,7 +4128,7 @@
       <c r="V51" s="6"/>
       <c r="W51" s="6"/>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A52" s="5"/>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
@@ -4058,7 +4150,7 @@
       <c r="V52" s="6"/>
       <c r="W52" s="6"/>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.5">
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
@@ -4079,7 +4171,7 @@
       <c r="V53" s="6"/>
       <c r="W53" s="6"/>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A54" s="5"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
@@ -4101,7 +4193,7 @@
       <c r="V54" s="6"/>
       <c r="W54" s="6"/>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.5">
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
@@ -4124,7 +4216,7 @@
       <c r="V55" s="6"/>
       <c r="W55" s="6"/>
     </row>
-    <row r="56" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A56" s="11"/>
       <c r="B56" s="12"/>
       <c r="C56" s="12"/>
@@ -4149,7 +4241,7 @@
       <c r="V56" s="12"/>
       <c r="W56" s="12"/>
     </row>
-    <row r="57" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B57" s="12"/>
       <c r="C57" s="12"/>
       <c r="D57" s="12"/>
@@ -4173,7 +4265,7 @@
       <c r="V57" s="12"/>
       <c r="W57" s="12"/>
     </row>
-    <row r="58" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B58" s="12"/>
       <c r="C58" s="12"/>
       <c r="D58" s="12"/>
@@ -4197,7 +4289,7 @@
       <c r="V58" s="12"/>
       <c r="W58" s="12"/>
     </row>
-    <row r="59" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A59" s="14"/>
       <c r="B59" s="12"/>
       <c r="C59" s="12"/>
@@ -4222,7 +4314,7 @@
       <c r="V59" s="12"/>
       <c r="W59" s="12"/>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A60" s="9"/>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
@@ -4246,7 +4338,7 @@
       <c r="V60" s="6"/>
       <c r="W60" s="6"/>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.5">
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
@@ -4269,7 +4361,7 @@
       <c r="V61" s="6"/>
       <c r="W61" s="6"/>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A62" s="5"/>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
@@ -4293,7 +4385,7 @@
       <c r="V62" s="6"/>
       <c r="W62" s="6"/>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A63" s="5"/>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
@@ -4317,7 +4409,7 @@
       <c r="V63" s="6"/>
       <c r="W63" s="6"/>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A64" s="5"/>
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
@@ -4341,7 +4433,7 @@
       <c r="V64" s="6"/>
       <c r="W64" s="6"/>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A65" s="5"/>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
@@ -4365,7 +4457,7 @@
       <c r="V65" s="6"/>
       <c r="W65" s="6"/>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.5">
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
@@ -4388,7 +4480,7 @@
       <c r="V66" s="6"/>
       <c r="W66" s="6"/>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A67" s="5"/>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
@@ -4406,28 +4498,28 @@
       <c r="P67" s="6"/>
       <c r="Q67" s="6"/>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A68" s="5"/>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A69" s="5"/>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A70" s="5"/>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A72" s="5"/>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A73" s="5"/>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A74" s="5"/>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A75" s="5"/>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.5">
       <c r="B100" s="6"/>
       <c r="C100" s="6"/>
       <c r="D100" s="6"/>
@@ -4446,7 +4538,7 @@
       <c r="Q100" s="6"/>
       <c r="R100" s="6"/>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A101" s="10"/>
       <c r="B101" s="6"/>
       <c r="C101" s="6"/>
@@ -4481,4 +4573,320 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00AE4381-B82F-4894-B849-45A4CFEDDDCA}">
+  <dimension ref="A1:J16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="35.875" customWidth="1"/>
+    <col min="2" max="4" width="19.5625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="21" customFormat="1" ht="47.25" x14ac:dyDescent="0.5">
+      <c r="B4" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="J4" s="21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A5" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="18">
+        <v>1520465525350</v>
+      </c>
+      <c r="C5" s="18">
+        <v>1560487039589</v>
+      </c>
+      <c r="D5" s="18">
+        <v>1506764458417</v>
+      </c>
+      <c r="I5" s="18">
+        <f>C5/B5</f>
+        <v>1.026321882062921</v>
+      </c>
+      <c r="J5" s="18">
+        <f>D5/B5</f>
+        <v>0.99098889997532424</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A6" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="18">
+        <v>114520832.5</v>
+      </c>
+      <c r="C6" s="18">
+        <v>444523187</v>
+      </c>
+      <c r="D6" s="18">
+        <v>110767775</v>
+      </c>
+      <c r="I6" s="18">
+        <f t="shared" ref="I6:I16" si="0">C6/B6</f>
+        <v>3.8815923469644704</v>
+      </c>
+      <c r="J6" s="18">
+        <f t="shared" ref="J6:J16" si="1">D6/B6</f>
+        <v>0.96722816785321575</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A7" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="18">
+        <v>8481944633</v>
+      </c>
+      <c r="C7" s="18">
+        <v>30208146801.5</v>
+      </c>
+      <c r="D7" s="18">
+        <v>8305966589.5</v>
+      </c>
+      <c r="I7" s="18">
+        <f t="shared" si="0"/>
+        <v>3.5614647475971091</v>
+      </c>
+      <c r="J7" s="18">
+        <f t="shared" si="1"/>
+        <v>0.97925263001419072</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A8" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="18">
+        <v>6228062</v>
+      </c>
+      <c r="C8" s="18">
+        <v>17137109</v>
+      </c>
+      <c r="D8" s="18">
+        <v>5920407</v>
+      </c>
+      <c r="I8" s="18">
+        <f t="shared" si="0"/>
+        <v>2.7515957612496473</v>
+      </c>
+      <c r="J8" s="18">
+        <f t="shared" si="1"/>
+        <v>0.95060180839561326</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A9" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="18">
+        <v>543370593</v>
+      </c>
+      <c r="C9" s="18">
+        <v>1506911903.5</v>
+      </c>
+      <c r="D9" s="18">
+        <v>485096441.5</v>
+      </c>
+      <c r="I9" s="18">
+        <f t="shared" si="0"/>
+        <v>2.7732673113209865</v>
+      </c>
+      <c r="J9" s="18">
+        <f t="shared" si="1"/>
+        <v>0.8927543149174435</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A10" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="18">
+        <v>6695050.5</v>
+      </c>
+      <c r="C10" s="18">
+        <v>11781213.5</v>
+      </c>
+      <c r="D10" s="18">
+        <v>7899729.5</v>
+      </c>
+      <c r="I10" s="18">
+        <f t="shared" si="0"/>
+        <v>1.7596900127937796</v>
+      </c>
+      <c r="J10" s="18">
+        <f t="shared" si="1"/>
+        <v>1.1799357600065898</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A11" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="18">
+        <v>539355034</v>
+      </c>
+      <c r="C11" s="18">
+        <v>897251637.5</v>
+      </c>
+      <c r="D11" s="18">
+        <v>616846551.5</v>
+      </c>
+      <c r="I11" s="18">
+        <f t="shared" si="0"/>
+        <v>1.6635640365600073</v>
+      </c>
+      <c r="J11" s="18">
+        <f t="shared" si="1"/>
+        <v>1.1436744122425304</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A12" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="18">
+        <v>52250694189</v>
+      </c>
+      <c r="C12" s="18">
+        <v>52934279586</v>
+      </c>
+      <c r="D12" s="18">
+        <v>44973691709</v>
+      </c>
+      <c r="I12" s="18">
+        <f t="shared" si="0"/>
+        <v>1.0130828002883052</v>
+      </c>
+      <c r="J12" s="18">
+        <f t="shared" si="1"/>
+        <v>0.86072907560466483</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A13" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="18">
+        <v>1548544995012</v>
+      </c>
+      <c r="C13" s="18">
+        <v>1608719519457</v>
+      </c>
+      <c r="D13" s="18">
+        <v>1564803334947.5</v>
+      </c>
+      <c r="I13" s="18">
+        <f t="shared" si="0"/>
+        <v>1.0388587510461933</v>
+      </c>
+      <c r="J13" s="18">
+        <f t="shared" si="1"/>
+        <v>1.0104991072186276</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A14" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="18">
+        <v>1625347483061</v>
+      </c>
+      <c r="C14" s="18">
+        <v>1615032534741</v>
+      </c>
+      <c r="D14" s="18">
+        <v>1634778975449.5</v>
+      </c>
+      <c r="I14" s="18">
+        <f t="shared" si="0"/>
+        <v>0.99365369656181213</v>
+      </c>
+      <c r="J14" s="18">
+        <f t="shared" si="1"/>
+        <v>1.0058027544797608</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A15" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="18">
+        <v>1584355630491.5</v>
+      </c>
+      <c r="C15" s="18">
+        <v>1573075449208.5</v>
+      </c>
+      <c r="D15" s="18">
+        <v>1591442261493.5</v>
+      </c>
+      <c r="I15" s="18">
+        <f t="shared" si="0"/>
+        <v>0.99288027191249939</v>
+      </c>
+      <c r="J15" s="18">
+        <f t="shared" si="1"/>
+        <v>1.0044728789834902</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A16" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="18">
+        <v>122392905451.5</v>
+      </c>
+      <c r="C16" s="18">
+        <v>129441231609.5</v>
+      </c>
+      <c r="D16" s="18">
+        <v>123918016042</v>
+      </c>
+      <c r="I16" s="18">
+        <f t="shared" si="0"/>
+        <v>1.0575877019341862</v>
+      </c>
+      <c r="J16" s="18">
+        <f t="shared" si="1"/>
+        <v>1.0124607760954278</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/java.xlsx
+++ b/java.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xdong\OneDrive\Paper\git_hub\shared_ptp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/29e1f5b82a02f9e3/Paper/git_hub/shared_ptp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="11_33E97E01793A7F03B72BD9B8ECDFDE0FC9F8CBB3" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{5D7A2A41-7E9D-4FA5-A3DC-C3AF81B45F03}"/>
+  <xr:revisionPtr revIDLastSave="55" documentId="11_33E97E01793A7F03B72BD9B8ECDFDE0FC9F8CBB3" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{181713F3-B9AB-4610-BC0E-51D216DAF7BB}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,6 +18,7 @@
     <sheet name="data-superpg" sheetId="10" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="84">
   <si>
     <t>Ms_L</t>
   </si>
@@ -276,6 +277,18 @@
   </si>
   <si>
     <t>Col D/Col B</t>
+  </si>
+  <si>
+    <t>Derby</t>
+  </si>
+  <si>
+    <t>default freebsd + disabling superpages for both code and data</t>
+  </si>
+  <si>
+    <t>Col E/Col B</t>
+  </si>
+  <si>
+    <t>cpuset -c -l 0,1,2,3,4,5 java -XX:+AlwaysPreTouch -XX:CodeCacheExpansionSize=2m -jar SPECjvm2008.jar -ikv -ict -wt 0 -crf false -o    ps 400 -Dspecjvm.hardware.threads.override=6 derby</t>
   </si>
 </sst>
 </file>
@@ -286,7 +299,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="#,##0.0000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -353,6 +366,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -383,7 +403,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -404,12 +424,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -417,6 +431,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Comma" xfId="5" builtinId="3"/>
@@ -734,26 +755,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.5">
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16" t="s">
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16" t="s">
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
       <c r="P1" s="1" t="s">
         <v>18</v>
       </c>
@@ -765,34 +786,34 @@
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.5">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16" t="s">
+      <c r="C2" s="21"/>
+      <c r="D2" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="17" t="s">
+      <c r="E2" s="21"/>
+      <c r="F2" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="16" t="s">
+      <c r="G2" s="22"/>
+      <c r="H2" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16" t="s">
+      <c r="I2" s="21"/>
+      <c r="J2" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16" t="s">
+      <c r="K2" s="21"/>
+      <c r="L2" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16" t="s">
+      <c r="M2" s="21"/>
+      <c r="N2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="O2" s="16"/>
+      <c r="O2" s="21"/>
       <c r="P2" s="1" t="s">
         <v>17</v>
       </c>
@@ -2728,27 +2749,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16" t="s">
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
       <c r="Q1" s="1" t="s">
         <v>18</v>
       </c>
@@ -2760,35 +2781,35 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16" t="s">
+      <c r="C2" s="21"/>
+      <c r="D2" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="16"/>
+      <c r="E2" s="21"/>
       <c r="F2" s="4"/>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="H2" s="17"/>
-      <c r="I2" s="16" t="s">
+      <c r="H2" s="22"/>
+      <c r="I2" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16" t="s">
+      <c r="J2" s="21"/>
+      <c r="K2" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16" t="s">
+      <c r="L2" s="21"/>
+      <c r="M2" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16" t="s">
+      <c r="N2" s="21"/>
+      <c r="O2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="P2" s="16"/>
+      <c r="P2" s="21"/>
       <c r="Q2" s="1" t="s">
         <v>17</v>
       </c>
@@ -4577,20 +4598,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00AE4381-B82F-4894-B849-45A4CFEDDDCA}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="35.875" customWidth="1"/>
     <col min="2" max="4" width="19.5625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.1875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="20" t="s">
         <v>77</v>
       </c>
     </row>
@@ -4604,285 +4626,672 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="21" customFormat="1" ht="47.25" x14ac:dyDescent="0.5">
-      <c r="B4" s="21" t="s">
+    <row r="4" spans="1:10" s="19" customFormat="1" ht="47.25" x14ac:dyDescent="0.5">
+      <c r="B4" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="D4" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="E4" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="I4" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A5" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="16">
+        <v>1520465525350</v>
+      </c>
+      <c r="D5" s="16">
+        <v>1560487039589</v>
+      </c>
+      <c r="E5" s="16">
+        <v>1506764458417</v>
+      </c>
+      <c r="I5" s="16">
+        <f>D5/B5</f>
+        <v>1.026321882062921</v>
+      </c>
+      <c r="J5" s="16">
+        <f>E5/B5</f>
+        <v>0.99098889997532424</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A6" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="16">
+        <v>114520832.5</v>
+      </c>
+      <c r="D6" s="16">
+        <v>444523187</v>
+      </c>
+      <c r="E6" s="16">
+        <v>110767775</v>
+      </c>
+      <c r="I6" s="16">
+        <f>D6/B6</f>
+        <v>3.8815923469644704</v>
+      </c>
+      <c r="J6" s="16">
+        <f>E6/B6</f>
+        <v>0.96722816785321575</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A7" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="16">
+        <v>8481944633</v>
+      </c>
+      <c r="D7" s="16">
+        <v>30208146801.5</v>
+      </c>
+      <c r="E7" s="16">
+        <v>8305966589.5</v>
+      </c>
+      <c r="I7" s="16">
+        <f>D7/B7</f>
+        <v>3.5614647475971091</v>
+      </c>
+      <c r="J7" s="16">
+        <f>E7/B7</f>
+        <v>0.97925263001419072</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A8" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="16">
+        <v>6228062</v>
+      </c>
+      <c r="D8" s="16">
+        <v>17137109</v>
+      </c>
+      <c r="E8" s="16">
+        <v>5920407</v>
+      </c>
+      <c r="I8" s="16">
+        <f>D8/B8</f>
+        <v>2.7515957612496473</v>
+      </c>
+      <c r="J8" s="16">
+        <f>E8/B8</f>
+        <v>0.95060180839561326</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A9" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="16">
+        <v>543370593</v>
+      </c>
+      <c r="D9" s="16">
+        <v>1506911903.5</v>
+      </c>
+      <c r="E9" s="16">
+        <v>485096441.5</v>
+      </c>
+      <c r="I9" s="16">
+        <f>D9/B9</f>
+        <v>2.7732673113209865</v>
+      </c>
+      <c r="J9" s="16">
+        <f>E9/B9</f>
+        <v>0.8927543149174435</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A10" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="16">
+        <v>6695050.5</v>
+      </c>
+      <c r="D10" s="16">
+        <v>11781213.5</v>
+      </c>
+      <c r="E10" s="16">
+        <v>7899729.5</v>
+      </c>
+      <c r="I10" s="16">
+        <f>D10/B10</f>
+        <v>1.7596900127937796</v>
+      </c>
+      <c r="J10" s="16">
+        <f>E10/B10</f>
+        <v>1.1799357600065898</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A11" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="16">
+        <v>539355034</v>
+      </c>
+      <c r="D11" s="16">
+        <v>897251637.5</v>
+      </c>
+      <c r="E11" s="16">
+        <v>616846551.5</v>
+      </c>
+      <c r="I11" s="16">
+        <f>D11/B11</f>
+        <v>1.6635640365600073</v>
+      </c>
+      <c r="J11" s="16">
+        <f>E11/B11</f>
+        <v>1.1436744122425304</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A12" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="16">
+        <v>52250694189</v>
+      </c>
+      <c r="D12" s="16">
+        <v>52934279586</v>
+      </c>
+      <c r="E12" s="16">
+        <v>44973691709</v>
+      </c>
+      <c r="I12" s="16">
+        <f>D12/B12</f>
+        <v>1.0130828002883052</v>
+      </c>
+      <c r="J12" s="16">
+        <f>E12/B12</f>
+        <v>0.86072907560466483</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A13" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="16">
+        <v>1548544995012</v>
+      </c>
+      <c r="D13" s="16">
+        <v>1608719519457</v>
+      </c>
+      <c r="E13" s="16">
+        <v>1564803334947.5</v>
+      </c>
+      <c r="I13" s="16">
+        <f>D13/B13</f>
+        <v>1.0388587510461933</v>
+      </c>
+      <c r="J13" s="16">
+        <f>E13/B13</f>
+        <v>1.0104991072186276</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A14" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="16">
+        <v>1625347483061</v>
+      </c>
+      <c r="D14" s="16">
+        <v>1615032534741</v>
+      </c>
+      <c r="E14" s="16">
+        <v>1634778975449.5</v>
+      </c>
+      <c r="I14" s="16">
+        <f>D14/B14</f>
+        <v>0.99365369656181213</v>
+      </c>
+      <c r="J14" s="16">
+        <f>E14/B14</f>
+        <v>1.0058027544797608</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A15" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="16">
+        <v>1584355630491.5</v>
+      </c>
+      <c r="D15" s="16">
+        <v>1573075449208.5</v>
+      </c>
+      <c r="E15" s="16">
+        <v>1591442261493.5</v>
+      </c>
+      <c r="I15" s="16">
+        <f>D15/B15</f>
+        <v>0.99288027191249939</v>
+      </c>
+      <c r="J15" s="16">
+        <f>E15/B15</f>
+        <v>1.0044728789834902</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A16" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="16">
+        <v>122392905451.5</v>
+      </c>
+      <c r="D16" s="16">
+        <v>129441231609.5</v>
+      </c>
+      <c r="E16" s="16">
+        <v>123918016042</v>
+      </c>
+      <c r="I16" s="16">
+        <f>D16/B16</f>
+        <v>1.0575877019341862</v>
+      </c>
+      <c r="J16" s="16">
+        <f>E16/B16</f>
+        <v>1.0124607760954278</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A19" s="17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="47.25" x14ac:dyDescent="0.5">
+      <c r="A21" s="19"/>
+      <c r="B21" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="H21" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="J4" s="21" t="s">
+      <c r="I21" s="19" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A5" s="19" t="s">
+      <c r="J21" s="19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A22" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="18">
-        <v>1520465525350</v>
-      </c>
-      <c r="C5" s="18">
-        <v>1560487039589</v>
-      </c>
-      <c r="D5" s="18">
-        <v>1506764458417</v>
-      </c>
-      <c r="I5" s="18">
-        <f>C5/B5</f>
-        <v>1.026321882062921</v>
-      </c>
-      <c r="J5" s="18">
-        <f>D5/B5</f>
-        <v>0.99098889997532424</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A6" s="19" t="s">
+      <c r="B22" s="16">
+        <v>1508802256400</v>
+      </c>
+      <c r="C22" s="16">
+        <v>1576819567950.5</v>
+      </c>
+      <c r="D22" s="16">
+        <v>1583225534870.5</v>
+      </c>
+      <c r="E22" s="16">
+        <v>1541988787024.5</v>
+      </c>
+      <c r="H22" s="16">
+        <f>C22/B22</f>
+        <v>1.0450803352539975</v>
+      </c>
+      <c r="I22" s="16">
+        <f>D22/B22</f>
+        <v>1.049326065198281</v>
+      </c>
+      <c r="J22" s="16">
+        <f>E22/B22</f>
+        <v>1.0219952816770588</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A23" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="18">
-        <v>114520832.5</v>
-      </c>
-      <c r="C6" s="18">
-        <v>444523187</v>
-      </c>
-      <c r="D6" s="18">
-        <v>110767775</v>
-      </c>
-      <c r="I6" s="18">
-        <f t="shared" ref="I6:I16" si="0">C6/B6</f>
-        <v>3.8815923469644704</v>
-      </c>
-      <c r="J6" s="18">
-        <f t="shared" ref="J6:J16" si="1">D6/B6</f>
-        <v>0.96722816785321575</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A7" s="19" t="s">
+      <c r="B23" s="16">
+        <v>21136615</v>
+      </c>
+      <c r="C23" s="16">
+        <v>1380324388.5</v>
+      </c>
+      <c r="D23" s="16">
+        <v>1379888049.5</v>
+      </c>
+      <c r="E23" s="16">
+        <v>21074067</v>
+      </c>
+      <c r="H23" s="16">
+        <f t="shared" ref="H23:H33" si="0">C23/B23</f>
+        <v>65.304893356859651</v>
+      </c>
+      <c r="I23" s="16">
+        <f t="shared" ref="I23:I33" si="1">D23/B23</f>
+        <v>65.284249606665966</v>
+      </c>
+      <c r="J23" s="16">
+        <f t="shared" ref="J23:J33" si="2">E23/B23</f>
+        <v>0.99704077497745025</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A24" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="18">
-        <v>8481944633</v>
-      </c>
-      <c r="C7" s="18">
-        <v>30208146801.5</v>
-      </c>
-      <c r="D7" s="18">
-        <v>8305966589.5</v>
-      </c>
-      <c r="I7" s="18">
+      <c r="B24" s="16">
+        <v>1860293858</v>
+      </c>
+      <c r="C24" s="16">
+        <v>71275459919</v>
+      </c>
+      <c r="D24" s="16">
+        <v>71762154315</v>
+      </c>
+      <c r="E24" s="16">
+        <v>1755898090</v>
+      </c>
+      <c r="H24" s="16">
         <f t="shared" si="0"/>
-        <v>3.5614647475971091</v>
-      </c>
-      <c r="J7" s="18">
+        <v>38.314086568897331</v>
+      </c>
+      <c r="I24" s="16">
         <f t="shared" si="1"/>
-        <v>0.97925263001419072</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A8" s="19" t="s">
+        <v>38.575708889428583</v>
+      </c>
+      <c r="J24" s="16">
+        <f t="shared" si="2"/>
+        <v>0.94388210897377478</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A25" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="18">
-        <v>6228062</v>
-      </c>
-      <c r="C8" s="18">
-        <v>17137109</v>
-      </c>
-      <c r="D8" s="18">
-        <v>5920407</v>
-      </c>
-      <c r="I8" s="18">
+      <c r="B25" s="16">
+        <v>8040356</v>
+      </c>
+      <c r="C25" s="16">
+        <v>41975629.5</v>
+      </c>
+      <c r="D25" s="16">
+        <v>44276861</v>
+      </c>
+      <c r="E25" s="16">
+        <v>6500691.5</v>
+      </c>
+      <c r="H25" s="16">
         <f t="shared" si="0"/>
-        <v>2.7515957612496473</v>
-      </c>
-      <c r="J8" s="18">
+        <v>5.2206182785936344</v>
+      </c>
+      <c r="I25" s="16">
         <f t="shared" si="1"/>
-        <v>0.95060180839561326</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A9" s="19" t="s">
+        <v>5.5068284289899605</v>
+      </c>
+      <c r="J25" s="16">
+        <f t="shared" si="2"/>
+        <v>0.80850791930108568</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A26" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="B9" s="18">
-        <v>543370593</v>
-      </c>
-      <c r="C9" s="18">
-        <v>1506911903.5</v>
-      </c>
-      <c r="D9" s="18">
-        <v>485096441.5</v>
-      </c>
-      <c r="I9" s="18">
+      <c r="B26" s="16">
+        <v>439527930.5</v>
+      </c>
+      <c r="C26" s="16">
+        <v>2497914991.5</v>
+      </c>
+      <c r="D26" s="16">
+        <v>2534943692</v>
+      </c>
+      <c r="E26" s="16">
+        <v>379487870</v>
+      </c>
+      <c r="H26" s="16">
         <f t="shared" si="0"/>
-        <v>2.7732673113209865</v>
-      </c>
-      <c r="J9" s="18">
+        <v>5.6831769227007065</v>
+      </c>
+      <c r="I26" s="16">
         <f t="shared" si="1"/>
-        <v>0.8927543149174435</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A10" s="19" t="s">
+        <v>5.7674234470521322</v>
+      </c>
+      <c r="J26" s="16">
+        <f t="shared" si="2"/>
+        <v>0.86339875959259427</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A27" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="B10" s="18">
-        <v>6695050.5</v>
-      </c>
-      <c r="C10" s="18">
-        <v>11781213.5</v>
-      </c>
-      <c r="D10" s="18">
-        <v>7899729.5</v>
-      </c>
-      <c r="I10" s="18">
+      <c r="B27" s="16">
+        <v>6313515.5</v>
+      </c>
+      <c r="C27" s="16">
+        <v>22044853</v>
+      </c>
+      <c r="D27" s="16">
+        <v>21352933.5</v>
+      </c>
+      <c r="E27" s="16">
+        <v>6292292.5</v>
+      </c>
+      <c r="H27" s="16">
         <f t="shared" si="0"/>
-        <v>1.7596900127937796</v>
-      </c>
-      <c r="J10" s="18">
+        <v>3.4916922275711526</v>
+      </c>
+      <c r="I27" s="16">
         <f t="shared" si="1"/>
-        <v>1.1799357600065898</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A11" s="19" t="s">
+        <v>3.3820988480981793</v>
+      </c>
+      <c r="J27" s="16">
+        <f t="shared" si="2"/>
+        <v>0.99663848136588873</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A28" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="18">
-        <v>539355034</v>
-      </c>
-      <c r="C11" s="18">
-        <v>897251637.5</v>
-      </c>
-      <c r="D11" s="18">
-        <v>616846551.5</v>
-      </c>
-      <c r="I11" s="18">
+      <c r="B28" s="16">
+        <v>433961661.5</v>
+      </c>
+      <c r="C28" s="16">
+        <v>1411803796</v>
+      </c>
+      <c r="D28" s="16">
+        <v>1289275077.5</v>
+      </c>
+      <c r="E28" s="16">
+        <v>427380998</v>
+      </c>
+      <c r="H28" s="16">
         <f t="shared" si="0"/>
-        <v>1.6635640365600073</v>
-      </c>
-      <c r="J11" s="18">
+        <v>3.2532915260764343</v>
+      </c>
+      <c r="I28" s="16">
         <f t="shared" si="1"/>
-        <v>1.1436744122425304</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A12" s="19" t="s">
+        <v>2.9709423478645243</v>
+      </c>
+      <c r="J28" s="16">
+        <f t="shared" si="2"/>
+        <v>0.98483584131083435</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A29" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="18">
-        <v>52250694189</v>
-      </c>
-      <c r="C12" s="18">
-        <v>52934279586</v>
-      </c>
-      <c r="D12" s="18">
-        <v>44973691709</v>
-      </c>
-      <c r="I12" s="18">
+      <c r="B29" s="16">
+        <v>3764551755</v>
+      </c>
+      <c r="C29" s="16">
+        <v>4942989063</v>
+      </c>
+      <c r="D29" s="16">
+        <v>4865484890</v>
+      </c>
+      <c r="E29" s="16">
+        <v>3817343052.5</v>
+      </c>
+      <c r="H29" s="16">
         <f t="shared" si="0"/>
-        <v>1.0130828002883052</v>
-      </c>
-      <c r="J12" s="18">
+        <v>1.3130352256240929</v>
+      </c>
+      <c r="I29" s="16">
         <f t="shared" si="1"/>
-        <v>0.86072907560466483</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A13" s="19" t="s">
+        <v>1.2924473368011911</v>
+      </c>
+      <c r="J29" s="16">
+        <f t="shared" si="2"/>
+        <v>1.0140232625119003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A30" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="B13" s="18">
-        <v>1548544995012</v>
-      </c>
-      <c r="C13" s="18">
-        <v>1608719519457</v>
-      </c>
-      <c r="D13" s="18">
-        <v>1564803334947.5</v>
-      </c>
-      <c r="I13" s="18">
+      <c r="B30" s="16">
+        <v>1547019715368</v>
+      </c>
+      <c r="C30" s="16">
+        <v>1611564882448.5</v>
+      </c>
+      <c r="D30" s="16">
+        <v>1633210578708</v>
+      </c>
+      <c r="E30" s="16">
+        <v>1550482424861</v>
+      </c>
+      <c r="H30" s="16">
         <f t="shared" si="0"/>
-        <v>1.0388587510461933</v>
-      </c>
-      <c r="J13" s="18">
+        <v>1.0417222653592015</v>
+      </c>
+      <c r="I30" s="16">
         <f t="shared" si="1"/>
-        <v>1.0104991072186276</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A14" s="19" t="s">
+        <v>1.0557141337526506</v>
+      </c>
+      <c r="J30" s="16">
+        <f t="shared" si="2"/>
+        <v>1.0022383098667726</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A31" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="B14" s="18">
-        <v>1625347483061</v>
-      </c>
-      <c r="C14" s="18">
-        <v>1615032534741</v>
-      </c>
-      <c r="D14" s="18">
-        <v>1634778975449.5</v>
-      </c>
-      <c r="I14" s="18">
+      <c r="B31" s="16">
+        <v>1992157146788</v>
+      </c>
+      <c r="C31" s="16">
+        <v>1969595288828.5</v>
+      </c>
+      <c r="D31" s="16">
+        <v>2011953165341.5</v>
+      </c>
+      <c r="E31" s="16">
+        <v>1983442299863.5</v>
+      </c>
+      <c r="H31" s="16">
         <f t="shared" si="0"/>
-        <v>0.99365369656181213</v>
-      </c>
-      <c r="J14" s="18">
+        <v>0.98867465952880429</v>
+      </c>
+      <c r="I31" s="16">
         <f t="shared" si="1"/>
-        <v>1.0058027544797608</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A15" s="19" t="s">
+        <v>1.0099369764003896</v>
+      </c>
+      <c r="J31" s="16">
+        <f t="shared" si="2"/>
+        <v>0.99562542195099857</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A32" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="B15" s="18">
-        <v>1584355630491.5</v>
-      </c>
-      <c r="C15" s="18">
-        <v>1573075449208.5</v>
-      </c>
-      <c r="D15" s="18">
-        <v>1591442261493.5</v>
-      </c>
-      <c r="I15" s="18">
+      <c r="B32" s="16">
+        <v>1958799620144.5</v>
+      </c>
+      <c r="C32" s="16">
+        <v>1935054244350</v>
+      </c>
+      <c r="D32" s="16">
+        <v>1976423733006.5</v>
+      </c>
+      <c r="E32" s="16">
+        <v>1950398493424.5</v>
+      </c>
+      <c r="H32" s="16">
         <f t="shared" si="0"/>
-        <v>0.99288027191249939</v>
-      </c>
-      <c r="J15" s="18">
+        <v>0.98787758811554782</v>
+      </c>
+      <c r="I32" s="16">
         <f t="shared" si="1"/>
-        <v>1.0044728789834902</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A16" s="20" t="s">
+        <v>1.0089974046761863</v>
+      </c>
+      <c r="J32" s="16">
+        <f t="shared" si="2"/>
+        <v>0.99571108415909315</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A33" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="18">
-        <v>122392905451.5</v>
-      </c>
-      <c r="C16" s="18">
-        <v>129441231609.5</v>
-      </c>
-      <c r="D16" s="18">
-        <v>123918016042</v>
-      </c>
-      <c r="I16" s="18">
+      <c r="B33" s="16">
+        <v>60616571130.5</v>
+      </c>
+      <c r="C33" s="16">
+        <v>69521620362</v>
+      </c>
+      <c r="D33" s="16">
+        <v>69306787481.5</v>
+      </c>
+      <c r="E33" s="16">
+        <v>62117011965</v>
+      </c>
+      <c r="H33" s="16">
         <f t="shared" si="0"/>
-        <v>1.0575877019341862</v>
-      </c>
-      <c r="J16" s="18">
+        <v>1.1469078350263087</v>
+      </c>
+      <c r="I33" s="16">
         <f t="shared" si="1"/>
-        <v>1.0124607760954278</v>
+        <v>1.1433637071336653</v>
+      </c>
+      <c r="J33" s="16">
+        <f t="shared" si="2"/>
+        <v>1.0247529810168532</v>
       </c>
     </row>
   </sheetData>

--- a/java.xlsx
+++ b/java.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/29e1f5b82a02f9e3/Paper/git_hub/shared_ptp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="55" documentId="11_33E97E01793A7F03B72BD9B8ECDFDE0FC9F8CBB3" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{181713F3-B9AB-4610-BC0E-51D216DAF7BB}"/>
+  <xr:revisionPtr revIDLastSave="73" documentId="11_33E97E01793A7F03B72BD9B8ECDFDE0FC9F8CBB3" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{5BD66F2A-FD2E-4C31-A9BE-E1D108FF6E44}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,6 @@
     <sheet name="data-superpg" sheetId="10" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="86">
   <si>
     <t>Ms_L</t>
   </si>
@@ -289,6 +288,12 @@
   </si>
   <si>
     <t>cpuset -c -l 0,1,2,3,4,5 java -XX:+AlwaysPreTouch -XX:CodeCacheExpansionSize=2m -jar SPECjvm2008.jar -ikv -ict -wt 0 -crf false -o    ps 400 -Dspecjvm.hardware.threads.override=6 derby</t>
+  </si>
+  <si>
+    <t>default freebsd + disabling code superpages</t>
+  </si>
+  <si>
+    <t>Col F/Col B</t>
   </si>
 </sst>
 </file>
@@ -431,13 +436,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Comma" xfId="5" builtinId="3"/>
@@ -755,26 +760,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.5">
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21" t="s">
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21" t="s">
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
       <c r="P1" s="1" t="s">
         <v>18</v>
       </c>
@@ -786,34 +791,34 @@
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.5">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21" t="s">
+      <c r="C2" s="22"/>
+      <c r="D2" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="22" t="s">
+      <c r="E2" s="22"/>
+      <c r="F2" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="G2" s="22"/>
-      <c r="H2" s="21" t="s">
+      <c r="G2" s="23"/>
+      <c r="H2" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21" t="s">
+      <c r="I2" s="22"/>
+      <c r="J2" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21" t="s">
+      <c r="K2" s="22"/>
+      <c r="L2" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21" t="s">
+      <c r="M2" s="22"/>
+      <c r="N2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="O2" s="21"/>
+      <c r="O2" s="22"/>
       <c r="P2" s="1" t="s">
         <v>17</v>
       </c>
@@ -2749,27 +2754,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21" t="s">
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
       <c r="Q1" s="1" t="s">
         <v>18</v>
       </c>
@@ -2781,35 +2786,35 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21" t="s">
+      <c r="C2" s="22"/>
+      <c r="D2" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="21"/>
+      <c r="E2" s="22"/>
       <c r="F2" s="4"/>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="H2" s="22"/>
-      <c r="I2" s="21" t="s">
+      <c r="H2" s="23"/>
+      <c r="I2" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21" t="s">
+      <c r="J2" s="22"/>
+      <c r="K2" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21" t="s">
+      <c r="L2" s="22"/>
+      <c r="M2" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21" t="s">
+      <c r="N2" s="22"/>
+      <c r="O2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="P2" s="21"/>
+      <c r="P2" s="22"/>
       <c r="Q2" s="1" t="s">
         <v>17</v>
       </c>
@@ -4598,331 +4603,357 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00AE4381-B82F-4894-B849-45A4CFEDDDCA}">
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="35.875" customWidth="1"/>
-    <col min="2" max="4" width="19.5625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.1875" customWidth="1"/>
+    <col min="2" max="2" width="19.5625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5625" customWidth="1"/>
+    <col min="4" max="5" width="19.5625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.1875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="20" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="19" customFormat="1" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:12" s="19" customFormat="1" ht="47.25" x14ac:dyDescent="0.5">
       <c r="B4" s="19" t="s">
         <v>74</v>
       </c>
+      <c r="C4" s="19" t="s">
+        <v>81</v>
+      </c>
       <c r="D4" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="F4" s="19" t="s">
         <v>76</v>
       </c>
       <c r="I4" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="J4" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="K4" s="19" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="L4" s="19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A5" s="17" t="s">
         <v>62</v>
       </c>
       <c r="B5" s="16">
         <v>1520465525350</v>
       </c>
-      <c r="D5" s="16">
+      <c r="C5" s="16"/>
+      <c r="E5" s="16">
         <v>1560487039589</v>
       </c>
-      <c r="E5" s="16">
+      <c r="F5" s="16">
         <v>1506764458417</v>
       </c>
-      <c r="I5" s="16">
-        <f>D5/B5</f>
+      <c r="K5" s="16">
+        <f>E5/B5</f>
         <v>1.026321882062921</v>
       </c>
-      <c r="J5" s="16">
-        <f>E5/B5</f>
+      <c r="L5" s="16">
+        <f>F5/B5</f>
         <v>0.99098889997532424</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A6" s="17" t="s">
         <v>63</v>
       </c>
       <c r="B6" s="16">
         <v>114520832.5</v>
       </c>
-      <c r="D6" s="16">
+      <c r="C6" s="16"/>
+      <c r="E6" s="16">
         <v>444523187</v>
       </c>
-      <c r="E6" s="16">
+      <c r="F6" s="16">
         <v>110767775</v>
       </c>
-      <c r="I6" s="16">
-        <f>D6/B6</f>
+      <c r="K6" s="16">
+        <f>E6/B6</f>
         <v>3.8815923469644704</v>
       </c>
-      <c r="J6" s="16">
-        <f>E6/B6</f>
+      <c r="L6" s="16">
+        <f>F6/B6</f>
         <v>0.96722816785321575</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A7" s="17" t="s">
         <v>64</v>
       </c>
       <c r="B7" s="16">
         <v>8481944633</v>
       </c>
-      <c r="D7" s="16">
+      <c r="C7" s="16"/>
+      <c r="E7" s="16">
         <v>30208146801.5</v>
       </c>
-      <c r="E7" s="16">
+      <c r="F7" s="16">
         <v>8305966589.5</v>
       </c>
-      <c r="I7" s="16">
-        <f>D7/B7</f>
+      <c r="K7" s="16">
+        <f>E7/B7</f>
         <v>3.5614647475971091</v>
       </c>
-      <c r="J7" s="16">
-        <f>E7/B7</f>
+      <c r="L7" s="16">
+        <f>F7/B7</f>
         <v>0.97925263001419072</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A8" s="17" t="s">
         <v>65</v>
       </c>
       <c r="B8" s="16">
         <v>6228062</v>
       </c>
-      <c r="D8" s="16">
+      <c r="C8" s="16"/>
+      <c r="E8" s="16">
         <v>17137109</v>
       </c>
-      <c r="E8" s="16">
+      <c r="F8" s="16">
         <v>5920407</v>
       </c>
-      <c r="I8" s="16">
-        <f>D8/B8</f>
+      <c r="K8" s="16">
+        <f>E8/B8</f>
         <v>2.7515957612496473</v>
       </c>
-      <c r="J8" s="16">
-        <f>E8/B8</f>
+      <c r="L8" s="16">
+        <f>F8/B8</f>
         <v>0.95060180839561326</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A9" s="17" t="s">
         <v>66</v>
       </c>
       <c r="B9" s="16">
         <v>543370593</v>
       </c>
-      <c r="D9" s="16">
+      <c r="C9" s="16"/>
+      <c r="E9" s="16">
         <v>1506911903.5</v>
       </c>
-      <c r="E9" s="16">
+      <c r="F9" s="16">
         <v>485096441.5</v>
       </c>
-      <c r="I9" s="16">
-        <f>D9/B9</f>
+      <c r="K9" s="16">
+        <f>E9/B9</f>
         <v>2.7732673113209865</v>
       </c>
-      <c r="J9" s="16">
-        <f>E9/B9</f>
+      <c r="L9" s="16">
+        <f>F9/B9</f>
         <v>0.8927543149174435</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A10" s="17" t="s">
         <v>67</v>
       </c>
       <c r="B10" s="16">
         <v>6695050.5</v>
       </c>
-      <c r="D10" s="16">
+      <c r="C10" s="16"/>
+      <c r="E10" s="16">
         <v>11781213.5</v>
       </c>
-      <c r="E10" s="16">
+      <c r="F10" s="16">
         <v>7899729.5</v>
       </c>
-      <c r="I10" s="16">
-        <f>D10/B10</f>
+      <c r="K10" s="16">
+        <f>E10/B10</f>
         <v>1.7596900127937796</v>
       </c>
-      <c r="J10" s="16">
-        <f>E10/B10</f>
+      <c r="L10" s="16">
+        <f>F10/B10</f>
         <v>1.1799357600065898</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A11" s="17" t="s">
         <v>68</v>
       </c>
       <c r="B11" s="16">
         <v>539355034</v>
       </c>
-      <c r="D11" s="16">
+      <c r="C11" s="16"/>
+      <c r="E11" s="16">
         <v>897251637.5</v>
       </c>
-      <c r="E11" s="16">
+      <c r="F11" s="16">
         <v>616846551.5</v>
       </c>
-      <c r="I11" s="16">
-        <f>D11/B11</f>
+      <c r="K11" s="16">
+        <f>E11/B11</f>
         <v>1.6635640365600073</v>
       </c>
-      <c r="J11" s="16">
-        <f>E11/B11</f>
+      <c r="L11" s="16">
+        <f>F11/B11</f>
         <v>1.1436744122425304</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A12" s="17" t="s">
         <v>69</v>
       </c>
       <c r="B12" s="16">
         <v>52250694189</v>
       </c>
-      <c r="D12" s="16">
+      <c r="C12" s="16"/>
+      <c r="E12" s="16">
         <v>52934279586</v>
       </c>
-      <c r="E12" s="16">
+      <c r="F12" s="16">
         <v>44973691709</v>
       </c>
-      <c r="I12" s="16">
-        <f>D12/B12</f>
+      <c r="K12" s="16">
+        <f>E12/B12</f>
         <v>1.0130828002883052</v>
       </c>
-      <c r="J12" s="16">
-        <f>E12/B12</f>
+      <c r="L12" s="16">
+        <f>F12/B12</f>
         <v>0.86072907560466483</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A13" s="17" t="s">
         <v>70</v>
       </c>
       <c r="B13" s="16">
         <v>1548544995012</v>
       </c>
-      <c r="D13" s="16">
+      <c r="C13" s="16"/>
+      <c r="E13" s="16">
         <v>1608719519457</v>
       </c>
-      <c r="E13" s="16">
+      <c r="F13" s="16">
         <v>1564803334947.5</v>
       </c>
-      <c r="I13" s="16">
-        <f>D13/B13</f>
+      <c r="K13" s="16">
+        <f>E13/B13</f>
         <v>1.0388587510461933</v>
       </c>
-      <c r="J13" s="16">
-        <f>E13/B13</f>
+      <c r="L13" s="16">
+        <f>F13/B13</f>
         <v>1.0104991072186276</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A14" s="17" t="s">
         <v>71</v>
       </c>
       <c r="B14" s="16">
         <v>1625347483061</v>
       </c>
-      <c r="D14" s="16">
+      <c r="C14" s="16"/>
+      <c r="E14" s="16">
         <v>1615032534741</v>
       </c>
-      <c r="E14" s="16">
+      <c r="F14" s="16">
         <v>1634778975449.5</v>
       </c>
-      <c r="I14" s="16">
-        <f>D14/B14</f>
+      <c r="K14" s="16">
+        <f>E14/B14</f>
         <v>0.99365369656181213</v>
       </c>
-      <c r="J14" s="16">
-        <f>E14/B14</f>
+      <c r="L14" s="16">
+        <f>F14/B14</f>
         <v>1.0058027544797608</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A15" s="17" t="s">
         <v>72</v>
       </c>
       <c r="B15" s="16">
         <v>1584355630491.5</v>
       </c>
-      <c r="D15" s="16">
+      <c r="C15" s="16"/>
+      <c r="E15" s="16">
         <v>1573075449208.5</v>
       </c>
-      <c r="E15" s="16">
+      <c r="F15" s="16">
         <v>1591442261493.5</v>
       </c>
-      <c r="I15" s="16">
-        <f>D15/B15</f>
+      <c r="K15" s="16">
+        <f>E15/B15</f>
         <v>0.99288027191249939</v>
       </c>
-      <c r="J15" s="16">
-        <f>E15/B15</f>
+      <c r="L15" s="16">
+        <f>F15/B15</f>
         <v>1.0044728789834902</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A16" s="18" t="s">
         <v>73</v>
       </c>
       <c r="B16" s="16">
         <v>122392905451.5</v>
       </c>
-      <c r="D16" s="16">
+      <c r="C16" s="16"/>
+      <c r="E16" s="16">
         <v>129441231609.5</v>
       </c>
-      <c r="E16" s="16">
+      <c r="F16" s="16">
         <v>123918016042</v>
       </c>
-      <c r="I16" s="16">
-        <f>D16/B16</f>
+      <c r="K16" s="16">
+        <f>E16/B16</f>
         <v>1.0575877019341862</v>
       </c>
-      <c r="J16" s="16">
-        <f>E16/B16</f>
+      <c r="L16" s="16">
+        <f>F16/B16</f>
         <v>1.0124607760954278</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="23" t="s">
+    <row r="18" spans="1:12" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="21" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A19" s="17" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:12" ht="47.25" x14ac:dyDescent="0.5">
       <c r="A21" s="19"/>
       <c r="B21" s="19" t="s">
         <v>74</v>
@@ -4931,22 +4962,28 @@
         <v>81</v>
       </c>
       <c r="D21" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="F21" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="H21" s="19" t="s">
+      <c r="I21" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="I21" s="19" t="s">
+      <c r="J21" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="J21" s="19" t="s">
+      <c r="K21" s="19" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="L21" s="19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A22" s="17" t="s">
         <v>62</v>
       </c>
@@ -4957,25 +4994,32 @@
         <v>1576819567950.5</v>
       </c>
       <c r="D22" s="16">
+        <v>1514257320744</v>
+      </c>
+      <c r="E22" s="16">
         <v>1583225534870.5</v>
       </c>
-      <c r="E22" s="16">
+      <c r="F22" s="16">
         <v>1541988787024.5</v>
       </c>
-      <c r="H22" s="16">
+      <c r="I22" s="16">
         <f>C22/B22</f>
         <v>1.0450803352539975</v>
       </c>
-      <c r="I22" s="16">
+      <c r="J22" s="16">
         <f>D22/B22</f>
+        <v>1.0036154932303825</v>
+      </c>
+      <c r="K22" s="16">
+        <f>E22/B22</f>
         <v>1.049326065198281</v>
       </c>
-      <c r="J22" s="16">
-        <f>E22/B22</f>
+      <c r="L22" s="16">
+        <f>F22/B22</f>
         <v>1.0219952816770588</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A23" s="17" t="s">
         <v>63</v>
       </c>
@@ -4986,25 +5030,32 @@
         <v>1380324388.5</v>
       </c>
       <c r="D23" s="16">
+        <v>23728187.5</v>
+      </c>
+      <c r="E23" s="16">
         <v>1379888049.5</v>
       </c>
-      <c r="E23" s="16">
+      <c r="F23" s="16">
         <v>21074067</v>
       </c>
-      <c r="H23" s="16">
-        <f t="shared" ref="H23:H33" si="0">C23/B23</f>
+      <c r="I23" s="16">
+        <f>C23/B23</f>
         <v>65.304893356859651</v>
       </c>
-      <c r="I23" s="16">
-        <f t="shared" ref="I23:I33" si="1">D23/B23</f>
+      <c r="J23" s="16">
+        <f t="shared" ref="J23:J33" si="0">D23/B23</f>
+        <v>1.1226105741151078</v>
+      </c>
+      <c r="K23" s="16">
+        <f>E23/B23</f>
         <v>65.284249606665966</v>
       </c>
-      <c r="J23" s="16">
-        <f t="shared" ref="J23:J33" si="2">E23/B23</f>
+      <c r="L23" s="16">
+        <f>F23/B23</f>
         <v>0.99704077497745025</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A24" s="17" t="s">
         <v>64</v>
       </c>
@@ -5015,25 +5066,32 @@
         <v>71275459919</v>
       </c>
       <c r="D24" s="16">
+        <v>1942187143.5</v>
+      </c>
+      <c r="E24" s="16">
         <v>71762154315</v>
       </c>
-      <c r="E24" s="16">
+      <c r="F24" s="16">
         <v>1755898090</v>
       </c>
-      <c r="H24" s="16">
+      <c r="I24" s="16">
+        <f>C24/B24</f>
+        <v>38.314086568897331</v>
+      </c>
+      <c r="J24" s="16">
         <f t="shared" si="0"/>
-        <v>38.314086568897331</v>
-      </c>
-      <c r="I24" s="16">
-        <f t="shared" si="1"/>
+        <v>1.0440216932114388</v>
+      </c>
+      <c r="K24" s="16">
+        <f>E24/B24</f>
         <v>38.575708889428583</v>
       </c>
-      <c r="J24" s="16">
-        <f t="shared" si="2"/>
+      <c r="L24" s="16">
+        <f>F24/B24</f>
         <v>0.94388210897377478</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A25" s="17" t="s">
         <v>65</v>
       </c>
@@ -5044,25 +5102,32 @@
         <v>41975629.5</v>
       </c>
       <c r="D25" s="16">
+        <v>7473081</v>
+      </c>
+      <c r="E25" s="16">
         <v>44276861</v>
       </c>
-      <c r="E25" s="16">
+      <c r="F25" s="16">
         <v>6500691.5</v>
       </c>
-      <c r="H25" s="16">
+      <c r="I25" s="16">
+        <f>C25/B25</f>
+        <v>5.2206182785936344</v>
+      </c>
+      <c r="J25" s="16">
         <f t="shared" si="0"/>
-        <v>5.2206182785936344</v>
-      </c>
-      <c r="I25" s="16">
-        <f t="shared" si="1"/>
+        <v>0.92944653196947991</v>
+      </c>
+      <c r="K25" s="16">
+        <f>E25/B25</f>
         <v>5.5068284289899605</v>
       </c>
-      <c r="J25" s="16">
-        <f t="shared" si="2"/>
+      <c r="L25" s="16">
+        <f>F25/B25</f>
         <v>0.80850791930108568</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A26" s="17" t="s">
         <v>66</v>
       </c>
@@ -5073,25 +5138,32 @@
         <v>2497914991.5</v>
       </c>
       <c r="D26" s="16">
+        <v>422243618.5</v>
+      </c>
+      <c r="E26" s="16">
         <v>2534943692</v>
       </c>
-      <c r="E26" s="16">
+      <c r="F26" s="16">
         <v>379487870</v>
       </c>
-      <c r="H26" s="16">
+      <c r="I26" s="16">
+        <f>C26/B26</f>
+        <v>5.6831769227007065</v>
+      </c>
+      <c r="J26" s="16">
         <f t="shared" si="0"/>
-        <v>5.6831769227007065</v>
-      </c>
-      <c r="I26" s="16">
-        <f t="shared" si="1"/>
+        <v>0.96067528181806872</v>
+      </c>
+      <c r="K26" s="16">
+        <f>E26/B26</f>
         <v>5.7674234470521322</v>
       </c>
-      <c r="J26" s="16">
-        <f t="shared" si="2"/>
+      <c r="L26" s="16">
+        <f>F26/B26</f>
         <v>0.86339875959259427</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A27" s="17" t="s">
         <v>67</v>
       </c>
@@ -5102,25 +5174,32 @@
         <v>22044853</v>
       </c>
       <c r="D27" s="16">
+        <v>6809926</v>
+      </c>
+      <c r="E27" s="16">
         <v>21352933.5</v>
       </c>
-      <c r="E27" s="16">
+      <c r="F27" s="16">
         <v>6292292.5</v>
       </c>
-      <c r="H27" s="16">
+      <c r="I27" s="16">
+        <f>C27/B27</f>
+        <v>3.4916922275711526</v>
+      </c>
+      <c r="J27" s="16">
         <f t="shared" si="0"/>
-        <v>3.4916922275711526</v>
-      </c>
-      <c r="I27" s="16">
-        <f t="shared" si="1"/>
+        <v>1.0786266383601972</v>
+      </c>
+      <c r="K27" s="16">
+        <f>E27/B27</f>
         <v>3.3820988480981793</v>
       </c>
-      <c r="J27" s="16">
-        <f t="shared" si="2"/>
+      <c r="L27" s="16">
+        <f>F27/B27</f>
         <v>0.99663848136588873</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A28" s="17" t="s">
         <v>68</v>
       </c>
@@ -5131,25 +5210,32 @@
         <v>1411803796</v>
       </c>
       <c r="D28" s="16">
+        <v>503593197</v>
+      </c>
+      <c r="E28" s="16">
         <v>1289275077.5</v>
       </c>
-      <c r="E28" s="16">
+      <c r="F28" s="16">
         <v>427380998</v>
       </c>
-      <c r="H28" s="16">
+      <c r="I28" s="16">
+        <f>C28/B28</f>
+        <v>3.2532915260764343</v>
+      </c>
+      <c r="J28" s="16">
         <f t="shared" si="0"/>
-        <v>3.2532915260764343</v>
-      </c>
-      <c r="I28" s="16">
-        <f t="shared" si="1"/>
+        <v>1.1604555002838655</v>
+      </c>
+      <c r="K28" s="16">
+        <f>E28/B28</f>
         <v>2.9709423478645243</v>
       </c>
-      <c r="J28" s="16">
-        <f t="shared" si="2"/>
+      <c r="L28" s="16">
+        <f>F28/B28</f>
         <v>0.98483584131083435</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A29" s="17" t="s">
         <v>69</v>
       </c>
@@ -5160,25 +5246,32 @@
         <v>4942989063</v>
       </c>
       <c r="D29" s="16">
+        <v>3636752017</v>
+      </c>
+      <c r="E29" s="16">
         <v>4865484890</v>
       </c>
-      <c r="E29" s="16">
+      <c r="F29" s="16">
         <v>3817343052.5</v>
       </c>
-      <c r="H29" s="16">
+      <c r="I29" s="16">
+        <f>C29/B29</f>
+        <v>1.3130352256240929</v>
+      </c>
+      <c r="J29" s="16">
         <f t="shared" si="0"/>
-        <v>1.3130352256240929</v>
-      </c>
-      <c r="I29" s="16">
-        <f t="shared" si="1"/>
+        <v>0.96605180475198438</v>
+      </c>
+      <c r="K29" s="16">
+        <f>E29/B29</f>
         <v>1.2924473368011911</v>
       </c>
-      <c r="J29" s="16">
-        <f t="shared" si="2"/>
+      <c r="L29" s="16">
+        <f>F29/B29</f>
         <v>1.0140232625119003</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A30" s="17" t="s">
         <v>70</v>
       </c>
@@ -5189,25 +5282,32 @@
         <v>1611564882448.5</v>
       </c>
       <c r="D30" s="16">
+        <v>1550456734191</v>
+      </c>
+      <c r="E30" s="16">
         <v>1633210578708</v>
       </c>
-      <c r="E30" s="16">
+      <c r="F30" s="16">
         <v>1550482424861</v>
       </c>
-      <c r="H30" s="16">
+      <c r="I30" s="16">
+        <f>C30/B30</f>
+        <v>1.0417222653592015</v>
+      </c>
+      <c r="J30" s="16">
         <f t="shared" si="0"/>
-        <v>1.0417222653592015</v>
-      </c>
-      <c r="I30" s="16">
-        <f t="shared" si="1"/>
+        <v>1.002221703310473</v>
+      </c>
+      <c r="K30" s="16">
+        <f>E30/B30</f>
         <v>1.0557141337526506</v>
       </c>
-      <c r="J30" s="16">
-        <f t="shared" si="2"/>
+      <c r="L30" s="16">
+        <f>F30/B30</f>
         <v>1.0022383098667726</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A31" s="17" t="s">
         <v>71</v>
       </c>
@@ -5218,25 +5318,32 @@
         <v>1969595288828.5</v>
       </c>
       <c r="D31" s="16">
+        <v>1983548760907</v>
+      </c>
+      <c r="E31" s="16">
         <v>2011953165341.5</v>
       </c>
-      <c r="E31" s="16">
+      <c r="F31" s="16">
         <v>1983442299863.5</v>
       </c>
-      <c r="H31" s="16">
+      <c r="I31" s="16">
+        <f>C31/B31</f>
+        <v>0.98867465952880429</v>
+      </c>
+      <c r="J31" s="16">
         <f t="shared" si="0"/>
-        <v>0.98867465952880429</v>
-      </c>
-      <c r="I31" s="16">
-        <f t="shared" si="1"/>
+        <v>0.99567886203411238</v>
+      </c>
+      <c r="K31" s="16">
+        <f>E31/B31</f>
         <v>1.0099369764003896</v>
       </c>
-      <c r="J31" s="16">
-        <f t="shared" si="2"/>
+      <c r="L31" s="16">
+        <f>F31/B31</f>
         <v>0.99562542195099857</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A32" s="17" t="s">
         <v>72</v>
       </c>
@@ -5247,25 +5354,32 @@
         <v>1935054244350</v>
       </c>
       <c r="D32" s="16">
+        <v>1950270998223</v>
+      </c>
+      <c r="E32" s="16">
         <v>1976423733006.5</v>
       </c>
-      <c r="E32" s="16">
+      <c r="F32" s="16">
         <v>1950398493424.5</v>
       </c>
-      <c r="H32" s="16">
+      <c r="I32" s="16">
+        <f>C32/B32</f>
+        <v>0.98787758811554782</v>
+      </c>
+      <c r="J32" s="16">
         <f t="shared" si="0"/>
-        <v>0.98787758811554782</v>
-      </c>
-      <c r="I32" s="16">
-        <f t="shared" si="1"/>
+        <v>0.99564599572422274</v>
+      </c>
+      <c r="K32" s="16">
+        <f>E32/B32</f>
         <v>1.0089974046761863</v>
       </c>
-      <c r="J32" s="16">
-        <f t="shared" si="2"/>
+      <c r="L32" s="16">
+        <f>F32/B32</f>
         <v>0.99571108415909315</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A33" s="18" t="s">
         <v>73</v>
       </c>
@@ -5276,21 +5390,28 @@
         <v>69521620362</v>
       </c>
       <c r="D33" s="16">
+        <v>61713135590.5</v>
+      </c>
+      <c r="E33" s="16">
         <v>69306787481.5</v>
       </c>
-      <c r="E33" s="16">
+      <c r="F33" s="16">
         <v>62117011965</v>
       </c>
-      <c r="H33" s="16">
+      <c r="I33" s="16">
+        <f>C33/B33</f>
+        <v>1.1469078350263087</v>
+      </c>
+      <c r="J33" s="16">
         <f t="shared" si="0"/>
-        <v>1.1469078350263087</v>
-      </c>
-      <c r="I33" s="16">
-        <f t="shared" si="1"/>
+        <v>1.0180901763255337</v>
+      </c>
+      <c r="K33" s="16">
+        <f>E33/B33</f>
         <v>1.1433637071336653</v>
       </c>
-      <c r="J33" s="16">
-        <f t="shared" si="2"/>
+      <c r="L33" s="16">
+        <f>F33/B33</f>
         <v>1.0247529810168532</v>
       </c>
     </row>

--- a/java.xlsx
+++ b/java.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/29e1f5b82a02f9e3/Paper/git_hub/shared_ptp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xdong\OneDrive\Paper\git_hub\shared_ptp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="73" documentId="11_33E97E01793A7F03B72BD9B8ECDFDE0FC9F8CBB3" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{5BD66F2A-FD2E-4C31-A9BE-E1D108FF6E44}"/>
+  <xr:revisionPtr revIDLastSave="118" documentId="11_33E97E01793A7F03B72BD9B8ECDFDE0FC9F8CBB3" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{1AA8A13A-80E5-4BE4-82B7-B89B68095FE9}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="derby" sheetId="8" r:id="rId1"/>
-    <sheet name="compiler" sheetId="9" r:id="rId2"/>
-    <sheet name="data-superpg" sheetId="10" r:id="rId3"/>
+    <sheet name="data-superpg" sheetId="10" r:id="rId1"/>
+    <sheet name="derby" sheetId="8" r:id="rId2"/>
+    <sheet name="compiler" sheetId="9" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="87">
   <si>
     <t>Ms_L</t>
   </si>
@@ -218,9 +218,6 @@
     <t>M_L, PreTouch</t>
   </si>
   <si>
-    <t>cpuset -c -l 0,1,2,3,4,5 java -XX:+AlwaysPreTouch -XX:CodeCacheExpansionSize=2m -jar SPECjvm2008.jar -ikv -ict -wt 0 -crf false -ops 500 -Dspecjvm.hardware.threads.over    ride=6 compiler.compiler</t>
-  </si>
-  <si>
     <t>Run on 3 cores/6 hyperthreads</t>
   </si>
   <si>
@@ -260,15 +257,6 @@
     <t>CYCLE_ACTIVITY.STALLS_L3_MISS</t>
   </si>
   <si>
-    <t>default freebsd</t>
-  </si>
-  <si>
-    <t>default freebsd + disabling data superpages</t>
-  </si>
-  <si>
-    <t>our kernel: first-touch data superpage promotion</t>
-  </si>
-  <si>
     <t>Compiler.compiler</t>
   </si>
   <si>
@@ -281,19 +269,34 @@
     <t>Derby</t>
   </si>
   <si>
-    <t>default freebsd + disabling superpages for both code and data</t>
-  </si>
-  <si>
     <t>Col E/Col B</t>
   </si>
   <si>
-    <t>cpuset -c -l 0,1,2,3,4,5 java -XX:+AlwaysPreTouch -XX:CodeCacheExpansionSize=2m -jar SPECjvm2008.jar -ikv -ict -wt 0 -crf false -o    ps 400 -Dspecjvm.hardware.threads.override=6 derby</t>
-  </si>
-  <si>
-    <t>default freebsd + disabling code superpages</t>
-  </si>
-  <si>
-    <t>Col F/Col B</t>
+    <t>Run on 2 cores/4 hyperthreads</t>
+  </si>
+  <si>
+    <t>cpuset -c -l 2,3,4,5 java -XX:+AlwaysPreTouch  -jar SPECjvm2008.jar -ikv -ict -wt 0 -crf false -ops 400 -Dspecjvm.hardware.threads.override=6 derby</t>
+  </si>
+  <si>
+    <t>cpuset -c -l 2,3,4,5 java -XX:+AlwaysPreTouch -jar SPECjvm2008.jar -ikv -ict -wt 0 -crf false -ops 500 -Dspecjvm.hardware.threads.override=6 compiler.compiler</t>
+  </si>
+  <si>
+    <t>option -XX:CodeCacheExpansionSize=2m is added by Yufeng. When this is set, all the JIT code (the heap) will be promoted to use superpages</t>
+  </si>
+  <si>
+    <t>ops/m</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> code no superpage, data no superpage </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> code no superpage, data superpage </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> code superpage, data no superpage </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> code superpage, data superpage </t>
   </si>
 </sst>
 </file>
@@ -731,6 +734,917 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00AE4381-B82F-4894-B849-45A4CFEDDDCA}">
+  <dimension ref="A1:L36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="35.875" customWidth="1"/>
+    <col min="2" max="2" width="19.5625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5625" customWidth="1"/>
+    <col min="4" max="5" width="19.5625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.1875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="19" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="B5" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A6" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="16">
+        <v>796487245.55799997</v>
+      </c>
+      <c r="C6" s="16">
+        <v>766825857.75300002</v>
+      </c>
+      <c r="D6" s="16">
+        <v>777906219.09500003</v>
+      </c>
+      <c r="E6" s="16">
+        <v>751483306.83150005</v>
+      </c>
+      <c r="F6" s="16"/>
+      <c r="H6" s="16">
+        <f>C6/B6</f>
+        <v>0.96275974540656972</v>
+      </c>
+      <c r="I6" s="16">
+        <f>D6/B6</f>
+        <v>0.97667128184835839</v>
+      </c>
+      <c r="J6" s="16">
+        <f t="shared" ref="J6:J17" si="0">E6/B6</f>
+        <v>0.94349697502692431</v>
+      </c>
+      <c r="L6" s="16"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A7" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="16">
+        <v>325063.46350000001</v>
+      </c>
+      <c r="C7" s="16">
+        <v>59234.462500000001</v>
+      </c>
+      <c r="D7" s="16">
+        <v>212865.019</v>
+      </c>
+      <c r="E7" s="16">
+        <v>54194.968999999997</v>
+      </c>
+      <c r="F7" s="16"/>
+      <c r="H7" s="16">
+        <f t="shared" ref="H7:H17" si="1">C7/B7</f>
+        <v>0.18222430125556083</v>
+      </c>
+      <c r="I7" s="16">
+        <f t="shared" ref="I7:I17" si="2">D7/B7</f>
+        <v>0.65484141683613106</v>
+      </c>
+      <c r="J7" s="16">
+        <f t="shared" si="0"/>
+        <v>0.16672119473679328</v>
+      </c>
+      <c r="L7" s="16"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A8" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="16">
+        <v>20877943.837000001</v>
+      </c>
+      <c r="C8" s="16">
+        <v>4515750.8480000002</v>
+      </c>
+      <c r="D8" s="16">
+        <v>14619384.566</v>
+      </c>
+      <c r="E8" s="16">
+        <v>4030061.1965000001</v>
+      </c>
+      <c r="F8" s="16"/>
+      <c r="H8" s="16">
+        <f t="shared" si="1"/>
+        <v>0.21629289183148212</v>
+      </c>
+      <c r="I8" s="16">
+        <f t="shared" si="2"/>
+        <v>0.70023105149327247</v>
+      </c>
+      <c r="J8" s="16">
+        <f t="shared" si="0"/>
+        <v>0.19302960233842112</v>
+      </c>
+      <c r="L8" s="16"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A9" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="16">
+        <v>12008.582</v>
+      </c>
+      <c r="C9" s="16">
+        <v>4093.1</v>
+      </c>
+      <c r="D9" s="16">
+        <v>8673.3914999999997</v>
+      </c>
+      <c r="E9" s="16">
+        <v>2484.7064999999998</v>
+      </c>
+      <c r="F9" s="16"/>
+      <c r="H9" s="16">
+        <f t="shared" si="1"/>
+        <v>0.34084790360760325</v>
+      </c>
+      <c r="I9" s="16">
+        <f t="shared" si="2"/>
+        <v>0.72226608437199324</v>
+      </c>
+      <c r="J9" s="16">
+        <f t="shared" si="0"/>
+        <v>0.20691089922190645</v>
+      </c>
+      <c r="L9" s="16"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A10" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="16">
+        <v>984439.28700000001</v>
+      </c>
+      <c r="C10" s="16">
+        <v>336751.87</v>
+      </c>
+      <c r="D10" s="16">
+        <v>749122.39800000004</v>
+      </c>
+      <c r="E10" s="16">
+        <v>233805.99299999999</v>
+      </c>
+      <c r="F10" s="16"/>
+      <c r="H10" s="16">
+        <f t="shared" si="1"/>
+        <v>0.3420747977523575</v>
+      </c>
+      <c r="I10" s="16">
+        <f t="shared" si="2"/>
+        <v>0.7609635331426996</v>
+      </c>
+      <c r="J10" s="16">
+        <f t="shared" si="0"/>
+        <v>0.23750168861353049</v>
+      </c>
+      <c r="L10" s="16"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A11" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="16">
+        <v>146671.33350000001</v>
+      </c>
+      <c r="C11" s="16">
+        <v>48375.279499999997</v>
+      </c>
+      <c r="D11" s="16">
+        <v>5612.6980000000003</v>
+      </c>
+      <c r="E11" s="16">
+        <v>2904.7429999999999</v>
+      </c>
+      <c r="F11" s="16"/>
+      <c r="H11" s="16">
+        <f t="shared" si="1"/>
+        <v>0.32982095645840703</v>
+      </c>
+      <c r="I11" s="16">
+        <f t="shared" si="2"/>
+        <v>3.826717781903851E-2</v>
+      </c>
+      <c r="J11" s="16">
+        <f t="shared" si="0"/>
+        <v>1.9804435745448511E-2</v>
+      </c>
+      <c r="L11" s="16"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A12" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="16">
+        <v>8594040.1539999992</v>
+      </c>
+      <c r="C12" s="16">
+        <v>3060212.8679999998</v>
+      </c>
+      <c r="D12" s="16">
+        <v>462685.40100000001</v>
+      </c>
+      <c r="E12" s="16">
+        <v>252987.1115</v>
+      </c>
+      <c r="F12" s="16"/>
+      <c r="H12" s="16">
+        <f t="shared" si="1"/>
+        <v>0.35608547472001956</v>
+      </c>
+      <c r="I12" s="16">
+        <f t="shared" si="2"/>
+        <v>5.3837938002261755E-2</v>
+      </c>
+      <c r="J12" s="16">
+        <f t="shared" si="0"/>
+        <v>2.9437506337720565E-2</v>
+      </c>
+      <c r="L12" s="16"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A13" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="16">
+        <v>67270808.754999995</v>
+      </c>
+      <c r="C13" s="16">
+        <v>57796529.652000003</v>
+      </c>
+      <c r="D13" s="16">
+        <v>36244908.563000001</v>
+      </c>
+      <c r="E13" s="16">
+        <v>27199898.5295</v>
+      </c>
+      <c r="F13" s="16"/>
+      <c r="H13" s="16">
+        <f t="shared" si="1"/>
+        <v>0.85916210495543055</v>
+      </c>
+      <c r="I13" s="16">
+        <f t="shared" si="2"/>
+        <v>0.53879103334410339</v>
+      </c>
+      <c r="J13" s="16">
+        <f t="shared" si="0"/>
+        <v>0.40433434699086074</v>
+      </c>
+      <c r="L13" s="16"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A14" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="16">
+        <v>812223203.10300004</v>
+      </c>
+      <c r="C14" s="16">
+        <v>776270198.43299997</v>
+      </c>
+      <c r="D14" s="16">
+        <v>794163084.38450003</v>
+      </c>
+      <c r="E14" s="16">
+        <v>769989658.48699999</v>
+      </c>
+      <c r="F14" s="16"/>
+      <c r="H14" s="16">
+        <f t="shared" si="1"/>
+        <v>0.95573506822675591</v>
+      </c>
+      <c r="I14" s="16">
+        <f t="shared" si="2"/>
+        <v>0.97776458656991883</v>
+      </c>
+      <c r="J14" s="16">
+        <f t="shared" si="0"/>
+        <v>0.94800253864374728</v>
+      </c>
+      <c r="L14" s="16"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A15" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="16">
+        <v>805772231.34949994</v>
+      </c>
+      <c r="C15" s="16">
+        <v>802173516.47549999</v>
+      </c>
+      <c r="D15" s="16">
+        <v>802265026.9375</v>
+      </c>
+      <c r="E15" s="16">
+        <v>803869256.10749996</v>
+      </c>
+      <c r="F15" s="16"/>
+      <c r="H15" s="16">
+        <f t="shared" si="1"/>
+        <v>0.99553383110761606</v>
+      </c>
+      <c r="I15" s="16">
+        <f t="shared" si="2"/>
+        <v>0.99564739975448635</v>
+      </c>
+      <c r="J15" s="16">
+        <f t="shared" si="0"/>
+        <v>0.99763832114341677</v>
+      </c>
+      <c r="L15" s="16"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A16" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" s="16">
+        <v>784416685.66349995</v>
+      </c>
+      <c r="C16" s="16">
+        <v>781713877.14300001</v>
+      </c>
+      <c r="D16" s="16">
+        <v>781683614.42449999</v>
+      </c>
+      <c r="E16" s="16">
+        <v>783069313.63450003</v>
+      </c>
+      <c r="F16" s="16"/>
+      <c r="H16" s="16">
+        <f t="shared" si="1"/>
+        <v>0.99655437145856507</v>
+      </c>
+      <c r="I16" s="16">
+        <f t="shared" si="2"/>
+        <v>0.99651579155702408</v>
+      </c>
+      <c r="J16" s="16">
+        <f t="shared" si="0"/>
+        <v>0.99828232614932166</v>
+      </c>
+      <c r="L16" s="16"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A17" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="16">
+        <v>64703915.783</v>
+      </c>
+      <c r="C17" s="16">
+        <v>61237046.626999997</v>
+      </c>
+      <c r="D17" s="16">
+        <v>64489431.559</v>
+      </c>
+      <c r="E17" s="16">
+        <v>59625922.027000003</v>
+      </c>
+      <c r="F17" s="16"/>
+      <c r="H17" s="16">
+        <f t="shared" si="1"/>
+        <v>0.94641948460079328</v>
+      </c>
+      <c r="I17" s="16">
+        <f t="shared" si="2"/>
+        <v>0.99668514306430356</v>
+      </c>
+      <c r="J17" s="16">
+        <f t="shared" si="0"/>
+        <v>0.9215195294666515</v>
+      </c>
+      <c r="L17" s="16"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A18" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" s="16">
+        <v>776.57500000000005</v>
+      </c>
+      <c r="C18" s="16">
+        <v>809.25</v>
+      </c>
+      <c r="D18" s="16">
+        <v>785.45</v>
+      </c>
+      <c r="E18" s="16">
+        <v>815.18499999999995</v>
+      </c>
+      <c r="F18" s="16"/>
+      <c r="H18" s="16">
+        <f>B18/C18</f>
+        <v>0.95962310781587901</v>
+      </c>
+      <c r="I18" s="16">
+        <f>B18/D18</f>
+        <v>0.9887007447959768</v>
+      </c>
+      <c r="J18" s="16">
+        <f>B18/E18</f>
+        <v>0.9526365180909856</v>
+      </c>
+      <c r="L18" s="16"/>
+    </row>
+    <row r="20" spans="1:12" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A21" s="17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A22" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A23" s="19"/>
+      <c r="B23" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="F23" s="19"/>
+      <c r="H23" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="I23" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="J23" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="L23" s="19"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A24" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="16">
+        <v>1004634992.89625</v>
+      </c>
+      <c r="C24" s="16">
+        <v>954998721.48249996</v>
+      </c>
+      <c r="D24" s="16">
+        <v>986894039.93562496</v>
+      </c>
+      <c r="E24" s="16">
+        <v>940301616.99187505</v>
+      </c>
+      <c r="F24" s="16"/>
+      <c r="H24" s="16">
+        <f t="shared" ref="H24:H35" si="3">C24/B24</f>
+        <v>0.95059273092742447</v>
+      </c>
+      <c r="I24" s="16">
+        <f t="shared" ref="I24:I35" si="4">D24/B24</f>
+        <v>0.98234089685699688</v>
+      </c>
+      <c r="J24" s="16">
+        <f t="shared" ref="J24:J35" si="5">E24/B24</f>
+        <v>0.9359634331281762</v>
+      </c>
+      <c r="L24" s="16"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A25" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="16">
+        <v>932171.16749999998</v>
+      </c>
+      <c r="C25" s="16">
+        <v>23272.638749999998</v>
+      </c>
+      <c r="D25" s="16">
+        <v>877853.35624999995</v>
+      </c>
+      <c r="E25" s="16">
+        <v>13635.615</v>
+      </c>
+      <c r="F25" s="16"/>
+      <c r="H25" s="16">
+        <f t="shared" si="3"/>
+        <v>2.4966057266515913E-2</v>
+      </c>
+      <c r="I25" s="16">
+        <f t="shared" si="4"/>
+        <v>0.94172978832237908</v>
+      </c>
+      <c r="J25" s="16">
+        <f t="shared" si="5"/>
+        <v>1.4627801712178574E-2</v>
+      </c>
+      <c r="L25" s="16"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A26" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="16">
+        <v>47433019.658749998</v>
+      </c>
+      <c r="C26" s="16">
+        <v>1619882.3525</v>
+      </c>
+      <c r="D26" s="16">
+        <v>45115197.759999998</v>
+      </c>
+      <c r="E26" s="16">
+        <v>1200854.4550000001</v>
+      </c>
+      <c r="F26" s="16"/>
+      <c r="H26" s="16">
+        <f t="shared" si="3"/>
+        <v>3.4150943038288716E-2</v>
+      </c>
+      <c r="I26" s="16">
+        <f t="shared" si="4"/>
+        <v>0.95113484413547289</v>
+      </c>
+      <c r="J26" s="16">
+        <f t="shared" si="5"/>
+        <v>2.531684602075461E-2</v>
+      </c>
+      <c r="L26" s="16"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A27" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="16">
+        <v>29419.079375000001</v>
+      </c>
+      <c r="C27" s="16">
+        <v>7519.6168749999997</v>
+      </c>
+      <c r="D27" s="16">
+        <v>26906.801875000001</v>
+      </c>
+      <c r="E27" s="16">
+        <v>4591.6793749999997</v>
+      </c>
+      <c r="F27" s="16"/>
+      <c r="H27" s="16">
+        <f t="shared" si="3"/>
+        <v>0.25560340550255573</v>
+      </c>
+      <c r="I27" s="16">
+        <f t="shared" si="4"/>
+        <v>0.91460380292746668</v>
+      </c>
+      <c r="J27" s="16">
+        <f t="shared" si="5"/>
+        <v>0.15607828227629572</v>
+      </c>
+      <c r="L27" s="16"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A28" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="16">
+        <v>1730469.8025</v>
+      </c>
+      <c r="C28" s="16">
+        <v>485031.66499999998</v>
+      </c>
+      <c r="D28" s="16">
+        <v>1535221.9412499999</v>
+      </c>
+      <c r="E28" s="16">
+        <v>241848.86499999999</v>
+      </c>
+      <c r="F28" s="16"/>
+      <c r="H28" s="16">
+        <f t="shared" si="3"/>
+        <v>0.28028900839487486</v>
+      </c>
+      <c r="I28" s="16">
+        <f t="shared" si="4"/>
+        <v>0.88717060478725107</v>
+      </c>
+      <c r="J28" s="16">
+        <f t="shared" si="5"/>
+        <v>0.13975907851763855</v>
+      </c>
+      <c r="L28" s="16"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A29" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" s="16">
+        <v>92931.378125000003</v>
+      </c>
+      <c r="C29" s="16">
+        <v>19701.501250000001</v>
+      </c>
+      <c r="D29" s="16">
+        <v>13614.727500000001</v>
+      </c>
+      <c r="E29" s="16">
+        <v>4187.8337499999998</v>
+      </c>
+      <c r="F29" s="16"/>
+      <c r="H29" s="16">
+        <f t="shared" si="3"/>
+        <v>0.21200052821233248</v>
+      </c>
+      <c r="I29" s="16">
+        <f t="shared" si="4"/>
+        <v>0.14650301948268887</v>
+      </c>
+      <c r="J29" s="16">
+        <f t="shared" si="5"/>
+        <v>4.5063721581391318E-2</v>
+      </c>
+      <c r="L29" s="16"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A30" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" s="16">
+        <v>5014041.3387500001</v>
+      </c>
+      <c r="C30" s="16">
+        <v>1239456.130625</v>
+      </c>
+      <c r="D30" s="16">
+        <v>817072.56874999998</v>
+      </c>
+      <c r="E30" s="16">
+        <v>279641.88312499999</v>
+      </c>
+      <c r="F30" s="16"/>
+      <c r="H30" s="16">
+        <f t="shared" si="3"/>
+        <v>0.24719703067585722</v>
+      </c>
+      <c r="I30" s="16">
+        <f t="shared" si="4"/>
+        <v>0.16295688717909454</v>
+      </c>
+      <c r="J30" s="16">
+        <f t="shared" si="5"/>
+        <v>5.5771754605181349E-2</v>
+      </c>
+      <c r="L30" s="16"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A31" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" s="16">
+        <v>36568451.625624999</v>
+      </c>
+      <c r="C31" s="16">
+        <v>31027505.238125</v>
+      </c>
+      <c r="D31" s="16">
+        <v>3129710.6412499999</v>
+      </c>
+      <c r="E31" s="16">
+        <v>2478523.7106249998</v>
+      </c>
+      <c r="F31" s="16"/>
+      <c r="H31" s="16">
+        <f t="shared" si="3"/>
+        <v>0.84847741314764247</v>
+      </c>
+      <c r="I31" s="16">
+        <f t="shared" si="4"/>
+        <v>8.5584992038790192E-2</v>
+      </c>
+      <c r="J31" s="16">
+        <f t="shared" si="5"/>
+        <v>6.7777649871513773E-2</v>
+      </c>
+      <c r="L31" s="16"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A32" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" s="16">
+        <v>1011876778.13</v>
+      </c>
+      <c r="C32" s="16">
+        <v>943723171.28125</v>
+      </c>
+      <c r="D32" s="16">
+        <v>1031120716.32687</v>
+      </c>
+      <c r="E32" s="16">
+        <v>961918051.78687501</v>
+      </c>
+      <c r="F32" s="16"/>
+      <c r="H32" s="16">
+        <f t="shared" si="3"/>
+        <v>0.93264633765516258</v>
+      </c>
+      <c r="I32" s="16">
+        <f t="shared" si="4"/>
+        <v>1.0190180648600651</v>
+      </c>
+      <c r="J32" s="16">
+        <f t="shared" si="5"/>
+        <v>0.95062765800846694</v>
+      </c>
+      <c r="L32" s="16"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A33" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33" s="16">
+        <v>1224242702.7581201</v>
+      </c>
+      <c r="C33" s="16">
+        <v>1206021703.6524999</v>
+      </c>
+      <c r="D33" s="16">
+        <v>1269488433.83687</v>
+      </c>
+      <c r="E33" s="16">
+        <v>1239889035.55562</v>
+      </c>
+      <c r="F33" s="16"/>
+      <c r="H33" s="16">
+        <f t="shared" si="3"/>
+        <v>0.98511651401754763</v>
+      </c>
+      <c r="I33" s="16">
+        <f t="shared" si="4"/>
+        <v>1.0369581382652435</v>
+      </c>
+      <c r="J33" s="16">
+        <f t="shared" si="5"/>
+        <v>1.0127804174468429</v>
+      </c>
+      <c r="L33" s="16"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A34" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" s="16">
+        <v>1202245970.7925</v>
+      </c>
+      <c r="C34" s="16">
+        <v>1185449199.1012499</v>
+      </c>
+      <c r="D34" s="16">
+        <v>1247077626.4712501</v>
+      </c>
+      <c r="E34" s="16">
+        <v>1219570112.0293701</v>
+      </c>
+      <c r="F34" s="16"/>
+      <c r="H34" s="16">
+        <f t="shared" si="3"/>
+        <v>0.98602883927306662</v>
+      </c>
+      <c r="I34" s="16">
+        <f t="shared" si="4"/>
+        <v>1.0372899196735903</v>
+      </c>
+      <c r="J34" s="16">
+        <f t="shared" si="5"/>
+        <v>1.0144098143456037</v>
+      </c>
+      <c r="L34" s="16"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A35" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35" s="16">
+        <v>43277187.178125001</v>
+      </c>
+      <c r="C35" s="16">
+        <v>38856062.791874997</v>
+      </c>
+      <c r="D35" s="16">
+        <v>44547069.221874997</v>
+      </c>
+      <c r="E35" s="16">
+        <v>35861547.723750003</v>
+      </c>
+      <c r="F35" s="16"/>
+      <c r="H35" s="16">
+        <f t="shared" si="3"/>
+        <v>0.89784168809185649</v>
+      </c>
+      <c r="I35" s="16">
+        <f t="shared" si="4"/>
+        <v>1.0293429893796766</v>
+      </c>
+      <c r="J35" s="16">
+        <f t="shared" si="5"/>
+        <v>0.82864784109344036</v>
+      </c>
+      <c r="L35" s="16"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A36" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B36" s="16">
+        <v>776.57500000000005</v>
+      </c>
+      <c r="C36" s="16">
+        <v>809.25</v>
+      </c>
+      <c r="D36" s="16">
+        <v>785.45</v>
+      </c>
+      <c r="E36" s="16">
+        <v>815.18499999999995</v>
+      </c>
+      <c r="H36" s="16">
+        <f>B36/C36</f>
+        <v>0.95962310781587901</v>
+      </c>
+      <c r="I36" s="16">
+        <f>B36/D36</f>
+        <v>0.9887007447959768</v>
+      </c>
+      <c r="J36" s="16">
+        <f>B36/E36</f>
+        <v>0.9526365180909856</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V117"/>
   <sheetViews>
@@ -2721,7 +3635,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W101"/>
   <sheetViews>
@@ -4599,824 +5513,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00AE4381-B82F-4894-B849-45A4CFEDDDCA}">
-  <dimension ref="A1:L33"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
-  <cols>
-    <col min="1" max="1" width="35.875" customWidth="1"/>
-    <col min="2" max="2" width="19.5625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5625" customWidth="1"/>
-    <col min="4" max="5" width="19.5625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.1875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="20" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="19" customFormat="1" ht="47.25" x14ac:dyDescent="0.5">
-      <c r="B4" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="I4" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="J4" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="K4" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="L4" s="19" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A5" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" s="16">
-        <v>1520465525350</v>
-      </c>
-      <c r="C5" s="16"/>
-      <c r="E5" s="16">
-        <v>1560487039589</v>
-      </c>
-      <c r="F5" s="16">
-        <v>1506764458417</v>
-      </c>
-      <c r="K5" s="16">
-        <f>E5/B5</f>
-        <v>1.026321882062921</v>
-      </c>
-      <c r="L5" s="16">
-        <f>F5/B5</f>
-        <v>0.99098889997532424</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A6" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="B6" s="16">
-        <v>114520832.5</v>
-      </c>
-      <c r="C6" s="16"/>
-      <c r="E6" s="16">
-        <v>444523187</v>
-      </c>
-      <c r="F6" s="16">
-        <v>110767775</v>
-      </c>
-      <c r="K6" s="16">
-        <f>E6/B6</f>
-        <v>3.8815923469644704</v>
-      </c>
-      <c r="L6" s="16">
-        <f>F6/B6</f>
-        <v>0.96722816785321575</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A7" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="B7" s="16">
-        <v>8481944633</v>
-      </c>
-      <c r="C7" s="16"/>
-      <c r="E7" s="16">
-        <v>30208146801.5</v>
-      </c>
-      <c r="F7" s="16">
-        <v>8305966589.5</v>
-      </c>
-      <c r="K7" s="16">
-        <f>E7/B7</f>
-        <v>3.5614647475971091</v>
-      </c>
-      <c r="L7" s="16">
-        <f>F7/B7</f>
-        <v>0.97925263001419072</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A8" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" s="16">
-        <v>6228062</v>
-      </c>
-      <c r="C8" s="16"/>
-      <c r="E8" s="16">
-        <v>17137109</v>
-      </c>
-      <c r="F8" s="16">
-        <v>5920407</v>
-      </c>
-      <c r="K8" s="16">
-        <f>E8/B8</f>
-        <v>2.7515957612496473</v>
-      </c>
-      <c r="L8" s="16">
-        <f>F8/B8</f>
-        <v>0.95060180839561326</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A9" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" s="16">
-        <v>543370593</v>
-      </c>
-      <c r="C9" s="16"/>
-      <c r="E9" s="16">
-        <v>1506911903.5</v>
-      </c>
-      <c r="F9" s="16">
-        <v>485096441.5</v>
-      </c>
-      <c r="K9" s="16">
-        <f>E9/B9</f>
-        <v>2.7732673113209865</v>
-      </c>
-      <c r="L9" s="16">
-        <f>F9/B9</f>
-        <v>0.8927543149174435</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A10" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="B10" s="16">
-        <v>6695050.5</v>
-      </c>
-      <c r="C10" s="16"/>
-      <c r="E10" s="16">
-        <v>11781213.5</v>
-      </c>
-      <c r="F10" s="16">
-        <v>7899729.5</v>
-      </c>
-      <c r="K10" s="16">
-        <f>E10/B10</f>
-        <v>1.7596900127937796</v>
-      </c>
-      <c r="L10" s="16">
-        <f>F10/B10</f>
-        <v>1.1799357600065898</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A11" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B11" s="16">
-        <v>539355034</v>
-      </c>
-      <c r="C11" s="16"/>
-      <c r="E11" s="16">
-        <v>897251637.5</v>
-      </c>
-      <c r="F11" s="16">
-        <v>616846551.5</v>
-      </c>
-      <c r="K11" s="16">
-        <f>E11/B11</f>
-        <v>1.6635640365600073</v>
-      </c>
-      <c r="L11" s="16">
-        <f>F11/B11</f>
-        <v>1.1436744122425304</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A12" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="B12" s="16">
-        <v>52250694189</v>
-      </c>
-      <c r="C12" s="16"/>
-      <c r="E12" s="16">
-        <v>52934279586</v>
-      </c>
-      <c r="F12" s="16">
-        <v>44973691709</v>
-      </c>
-      <c r="K12" s="16">
-        <f>E12/B12</f>
-        <v>1.0130828002883052</v>
-      </c>
-      <c r="L12" s="16">
-        <f>F12/B12</f>
-        <v>0.86072907560466483</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A13" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="B13" s="16">
-        <v>1548544995012</v>
-      </c>
-      <c r="C13" s="16"/>
-      <c r="E13" s="16">
-        <v>1608719519457</v>
-      </c>
-      <c r="F13" s="16">
-        <v>1564803334947.5</v>
-      </c>
-      <c r="K13" s="16">
-        <f>E13/B13</f>
-        <v>1.0388587510461933</v>
-      </c>
-      <c r="L13" s="16">
-        <f>F13/B13</f>
-        <v>1.0104991072186276</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A14" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="B14" s="16">
-        <v>1625347483061</v>
-      </c>
-      <c r="C14" s="16"/>
-      <c r="E14" s="16">
-        <v>1615032534741</v>
-      </c>
-      <c r="F14" s="16">
-        <v>1634778975449.5</v>
-      </c>
-      <c r="K14" s="16">
-        <f>E14/B14</f>
-        <v>0.99365369656181213</v>
-      </c>
-      <c r="L14" s="16">
-        <f>F14/B14</f>
-        <v>1.0058027544797608</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A15" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="B15" s="16">
-        <v>1584355630491.5</v>
-      </c>
-      <c r="C15" s="16"/>
-      <c r="E15" s="16">
-        <v>1573075449208.5</v>
-      </c>
-      <c r="F15" s="16">
-        <v>1591442261493.5</v>
-      </c>
-      <c r="K15" s="16">
-        <f>E15/B15</f>
-        <v>0.99288027191249939</v>
-      </c>
-      <c r="L15" s="16">
-        <f>F15/B15</f>
-        <v>1.0044728789834902</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A16" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="B16" s="16">
-        <v>122392905451.5</v>
-      </c>
-      <c r="C16" s="16"/>
-      <c r="E16" s="16">
-        <v>129441231609.5</v>
-      </c>
-      <c r="F16" s="16">
-        <v>123918016042</v>
-      </c>
-      <c r="K16" s="16">
-        <f>E16/B16</f>
-        <v>1.0575877019341862</v>
-      </c>
-      <c r="L16" s="16">
-        <f>F16/B16</f>
-        <v>1.0124607760954278</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="21" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A19" s="17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A20" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="47.25" x14ac:dyDescent="0.5">
-      <c r="A21" s="19"/>
-      <c r="B21" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="F21" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="I21" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="J21" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="K21" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="L21" s="19" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A22" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B22" s="16">
-        <v>1508802256400</v>
-      </c>
-      <c r="C22" s="16">
-        <v>1576819567950.5</v>
-      </c>
-      <c r="D22" s="16">
-        <v>1514257320744</v>
-      </c>
-      <c r="E22" s="16">
-        <v>1583225534870.5</v>
-      </c>
-      <c r="F22" s="16">
-        <v>1541988787024.5</v>
-      </c>
-      <c r="I22" s="16">
-        <f>C22/B22</f>
-        <v>1.0450803352539975</v>
-      </c>
-      <c r="J22" s="16">
-        <f>D22/B22</f>
-        <v>1.0036154932303825</v>
-      </c>
-      <c r="K22" s="16">
-        <f>E22/B22</f>
-        <v>1.049326065198281</v>
-      </c>
-      <c r="L22" s="16">
-        <f>F22/B22</f>
-        <v>1.0219952816770588</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A23" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="B23" s="16">
-        <v>21136615</v>
-      </c>
-      <c r="C23" s="16">
-        <v>1380324388.5</v>
-      </c>
-      <c r="D23" s="16">
-        <v>23728187.5</v>
-      </c>
-      <c r="E23" s="16">
-        <v>1379888049.5</v>
-      </c>
-      <c r="F23" s="16">
-        <v>21074067</v>
-      </c>
-      <c r="I23" s="16">
-        <f>C23/B23</f>
-        <v>65.304893356859651</v>
-      </c>
-      <c r="J23" s="16">
-        <f t="shared" ref="J23:J33" si="0">D23/B23</f>
-        <v>1.1226105741151078</v>
-      </c>
-      <c r="K23" s="16">
-        <f>E23/B23</f>
-        <v>65.284249606665966</v>
-      </c>
-      <c r="L23" s="16">
-        <f>F23/B23</f>
-        <v>0.99704077497745025</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A24" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="B24" s="16">
-        <v>1860293858</v>
-      </c>
-      <c r="C24" s="16">
-        <v>71275459919</v>
-      </c>
-      <c r="D24" s="16">
-        <v>1942187143.5</v>
-      </c>
-      <c r="E24" s="16">
-        <v>71762154315</v>
-      </c>
-      <c r="F24" s="16">
-        <v>1755898090</v>
-      </c>
-      <c r="I24" s="16">
-        <f>C24/B24</f>
-        <v>38.314086568897331</v>
-      </c>
-      <c r="J24" s="16">
-        <f t="shared" si="0"/>
-        <v>1.0440216932114388</v>
-      </c>
-      <c r="K24" s="16">
-        <f>E24/B24</f>
-        <v>38.575708889428583</v>
-      </c>
-      <c r="L24" s="16">
-        <f>F24/B24</f>
-        <v>0.94388210897377478</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A25" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="B25" s="16">
-        <v>8040356</v>
-      </c>
-      <c r="C25" s="16">
-        <v>41975629.5</v>
-      </c>
-      <c r="D25" s="16">
-        <v>7473081</v>
-      </c>
-      <c r="E25" s="16">
-        <v>44276861</v>
-      </c>
-      <c r="F25" s="16">
-        <v>6500691.5</v>
-      </c>
-      <c r="I25" s="16">
-        <f>C25/B25</f>
-        <v>5.2206182785936344</v>
-      </c>
-      <c r="J25" s="16">
-        <f t="shared" si="0"/>
-        <v>0.92944653196947991</v>
-      </c>
-      <c r="K25" s="16">
-        <f>E25/B25</f>
-        <v>5.5068284289899605</v>
-      </c>
-      <c r="L25" s="16">
-        <f>F25/B25</f>
-        <v>0.80850791930108568</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A26" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="B26" s="16">
-        <v>439527930.5</v>
-      </c>
-      <c r="C26" s="16">
-        <v>2497914991.5</v>
-      </c>
-      <c r="D26" s="16">
-        <v>422243618.5</v>
-      </c>
-      <c r="E26" s="16">
-        <v>2534943692</v>
-      </c>
-      <c r="F26" s="16">
-        <v>379487870</v>
-      </c>
-      <c r="I26" s="16">
-        <f>C26/B26</f>
-        <v>5.6831769227007065</v>
-      </c>
-      <c r="J26" s="16">
-        <f t="shared" si="0"/>
-        <v>0.96067528181806872</v>
-      </c>
-      <c r="K26" s="16">
-        <f>E26/B26</f>
-        <v>5.7674234470521322</v>
-      </c>
-      <c r="L26" s="16">
-        <f>F26/B26</f>
-        <v>0.86339875959259427</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A27" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="B27" s="16">
-        <v>6313515.5</v>
-      </c>
-      <c r="C27" s="16">
-        <v>22044853</v>
-      </c>
-      <c r="D27" s="16">
-        <v>6809926</v>
-      </c>
-      <c r="E27" s="16">
-        <v>21352933.5</v>
-      </c>
-      <c r="F27" s="16">
-        <v>6292292.5</v>
-      </c>
-      <c r="I27" s="16">
-        <f>C27/B27</f>
-        <v>3.4916922275711526</v>
-      </c>
-      <c r="J27" s="16">
-        <f t="shared" si="0"/>
-        <v>1.0786266383601972</v>
-      </c>
-      <c r="K27" s="16">
-        <f>E27/B27</f>
-        <v>3.3820988480981793</v>
-      </c>
-      <c r="L27" s="16">
-        <f>F27/B27</f>
-        <v>0.99663848136588873</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A28" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B28" s="16">
-        <v>433961661.5</v>
-      </c>
-      <c r="C28" s="16">
-        <v>1411803796</v>
-      </c>
-      <c r="D28" s="16">
-        <v>503593197</v>
-      </c>
-      <c r="E28" s="16">
-        <v>1289275077.5</v>
-      </c>
-      <c r="F28" s="16">
-        <v>427380998</v>
-      </c>
-      <c r="I28" s="16">
-        <f>C28/B28</f>
-        <v>3.2532915260764343</v>
-      </c>
-      <c r="J28" s="16">
-        <f t="shared" si="0"/>
-        <v>1.1604555002838655</v>
-      </c>
-      <c r="K28" s="16">
-        <f>E28/B28</f>
-        <v>2.9709423478645243</v>
-      </c>
-      <c r="L28" s="16">
-        <f>F28/B28</f>
-        <v>0.98483584131083435</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A29" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="B29" s="16">
-        <v>3764551755</v>
-      </c>
-      <c r="C29" s="16">
-        <v>4942989063</v>
-      </c>
-      <c r="D29" s="16">
-        <v>3636752017</v>
-      </c>
-      <c r="E29" s="16">
-        <v>4865484890</v>
-      </c>
-      <c r="F29" s="16">
-        <v>3817343052.5</v>
-      </c>
-      <c r="I29" s="16">
-        <f>C29/B29</f>
-        <v>1.3130352256240929</v>
-      </c>
-      <c r="J29" s="16">
-        <f t="shared" si="0"/>
-        <v>0.96605180475198438</v>
-      </c>
-      <c r="K29" s="16">
-        <f>E29/B29</f>
-        <v>1.2924473368011911</v>
-      </c>
-      <c r="L29" s="16">
-        <f>F29/B29</f>
-        <v>1.0140232625119003</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A30" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="B30" s="16">
-        <v>1547019715368</v>
-      </c>
-      <c r="C30" s="16">
-        <v>1611564882448.5</v>
-      </c>
-      <c r="D30" s="16">
-        <v>1550456734191</v>
-      </c>
-      <c r="E30" s="16">
-        <v>1633210578708</v>
-      </c>
-      <c r="F30" s="16">
-        <v>1550482424861</v>
-      </c>
-      <c r="I30" s="16">
-        <f>C30/B30</f>
-        <v>1.0417222653592015</v>
-      </c>
-      <c r="J30" s="16">
-        <f t="shared" si="0"/>
-        <v>1.002221703310473</v>
-      </c>
-      <c r="K30" s="16">
-        <f>E30/B30</f>
-        <v>1.0557141337526506</v>
-      </c>
-      <c r="L30" s="16">
-        <f>F30/B30</f>
-        <v>1.0022383098667726</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A31" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="B31" s="16">
-        <v>1992157146788</v>
-      </c>
-      <c r="C31" s="16">
-        <v>1969595288828.5</v>
-      </c>
-      <c r="D31" s="16">
-        <v>1983548760907</v>
-      </c>
-      <c r="E31" s="16">
-        <v>2011953165341.5</v>
-      </c>
-      <c r="F31" s="16">
-        <v>1983442299863.5</v>
-      </c>
-      <c r="I31" s="16">
-        <f>C31/B31</f>
-        <v>0.98867465952880429</v>
-      </c>
-      <c r="J31" s="16">
-        <f t="shared" si="0"/>
-        <v>0.99567886203411238</v>
-      </c>
-      <c r="K31" s="16">
-        <f>E31/B31</f>
-        <v>1.0099369764003896</v>
-      </c>
-      <c r="L31" s="16">
-        <f>F31/B31</f>
-        <v>0.99562542195099857</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A32" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="B32" s="16">
-        <v>1958799620144.5</v>
-      </c>
-      <c r="C32" s="16">
-        <v>1935054244350</v>
-      </c>
-      <c r="D32" s="16">
-        <v>1950270998223</v>
-      </c>
-      <c r="E32" s="16">
-        <v>1976423733006.5</v>
-      </c>
-      <c r="F32" s="16">
-        <v>1950398493424.5</v>
-      </c>
-      <c r="I32" s="16">
-        <f>C32/B32</f>
-        <v>0.98787758811554782</v>
-      </c>
-      <c r="J32" s="16">
-        <f t="shared" si="0"/>
-        <v>0.99564599572422274</v>
-      </c>
-      <c r="K32" s="16">
-        <f>E32/B32</f>
-        <v>1.0089974046761863</v>
-      </c>
-      <c r="L32" s="16">
-        <f>F32/B32</f>
-        <v>0.99571108415909315</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A33" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="B33" s="16">
-        <v>60616571130.5</v>
-      </c>
-      <c r="C33" s="16">
-        <v>69521620362</v>
-      </c>
-      <c r="D33" s="16">
-        <v>61713135590.5</v>
-      </c>
-      <c r="E33" s="16">
-        <v>69306787481.5</v>
-      </c>
-      <c r="F33" s="16">
-        <v>62117011965</v>
-      </c>
-      <c r="I33" s="16">
-        <f>C33/B33</f>
-        <v>1.1469078350263087</v>
-      </c>
-      <c r="J33" s="16">
-        <f t="shared" si="0"/>
-        <v>1.0180901763255337</v>
-      </c>
-      <c r="K33" s="16">
-        <f>E33/B33</f>
-        <v>1.1433637071336653</v>
-      </c>
-      <c r="L33" s="16">
-        <f>F33/B33</f>
-        <v>1.0247529810168532</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/java.xlsx
+++ b/java.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xdong\OneDrive\Paper\git_hub\shared_ptp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/29e1f5b82a02f9e3/Paper/git_hub/shared_ptp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="118" documentId="11_33E97E01793A7F03B72BD9B8ECDFDE0FC9F8CBB3" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{1AA8A13A-80E5-4BE4-82B7-B89B68095FE9}"/>
+  <xr:revisionPtr revIDLastSave="141" documentId="11_33E97E01793A7F03B72BD9B8ECDFDE0FC9F8CBB3" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{DF91B071-7AF1-4441-B844-51F88D12E9D4}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="82">
   <si>
     <t>Ms_L</t>
   </si>
@@ -218,45 +218,12 @@
     <t>M_L, PreTouch</t>
   </si>
   <si>
-    <t>Run on 3 cores/6 hyperthreads</t>
-  </si>
-  <si>
     <t>CPU_CLK_UNHALTED.THREAD_P</t>
   </si>
   <si>
-    <t>DTLB_LOAD_MISSES.WALK_COMPLETED</t>
-  </si>
-  <si>
-    <t>DTLB_LOAD_MISSES.WALK_PENDING</t>
-  </si>
-  <si>
-    <t>DTLB_STORE_MISSES.WALK_COMPLETED</t>
-  </si>
-  <si>
-    <t>DTLB_STORE_MISSES.WALK_PENDING</t>
-  </si>
-  <si>
-    <t>ITLB_MISSES.WALK_COMPLETED</t>
-  </si>
-  <si>
-    <t>ITLB_MISSES.WALK_PENDING</t>
-  </si>
-  <si>
-    <t>ICACHE_64B.IFTAG_STALL</t>
-  </si>
-  <si>
-    <t>CPU_CLK_UNHALTED.THREAD_P (os + usr)</t>
-  </si>
-  <si>
     <t>INST_RETIRED.ANY_P</t>
   </si>
   <si>
-    <t>INST_RETIRED.ANY_P (os + user)</t>
-  </si>
-  <si>
-    <t>CYCLE_ACTIVITY.STALLS_L3_MISS</t>
-  </si>
-  <si>
     <t>Compiler.compiler</t>
   </si>
   <si>
@@ -275,12 +242,6 @@
     <t>Run on 2 cores/4 hyperthreads</t>
   </si>
   <si>
-    <t>cpuset -c -l 2,3,4,5 java -XX:+AlwaysPreTouch  -jar SPECjvm2008.jar -ikv -ict -wt 0 -crf false -ops 400 -Dspecjvm.hardware.threads.override=6 derby</t>
-  </si>
-  <si>
-    <t>cpuset -c -l 2,3,4,5 java -XX:+AlwaysPreTouch -jar SPECjvm2008.jar -ikv -ict -wt 0 -crf false -ops 500 -Dspecjvm.hardware.threads.override=6 compiler.compiler</t>
-  </si>
-  <si>
     <t>option -XX:CodeCacheExpansionSize=2m is added by Yufeng. When this is set, all the JIT code (the heap) will be promoted to use superpages</t>
   </si>
   <si>
@@ -297,6 +258,30 @@
   </si>
   <si>
     <t xml:space="preserve"> code superpage, data superpage </t>
+  </si>
+  <si>
+    <t>cpuset -c -l 2,3,4,5 java -XX:+AlwaysPreTouch -jar SPECjvm2008.jar -ikv -ict -wt 0 -crf false -ops 500 -Dspecjvm.hardware.threads.override=4 compiler.compiler</t>
+  </si>
+  <si>
+    <t>cpuset -c -l 2,3,4,5 java -XX:+AlwaysPreTouch  -jar SPECjvm2008.jar -ikv -ict -wt 0 -crf false -ops 400 -Dspecjvm.hardware.threads.override=4 derby</t>
+  </si>
+  <si>
+    <t>CPU_CLK_UNHALTED.THREAD_P,usr</t>
+  </si>
+  <si>
+    <t>DTLB_LOAD_MISSES.WALK_PENDING,usr</t>
+  </si>
+  <si>
+    <t>DTLB_STORE_MISSES.WALK_PENDING,usr</t>
+  </si>
+  <si>
+    <t>ITLB_MISSES.WALK_PENDING,usr</t>
+  </si>
+  <si>
+    <t>ICACHE_64B.IFTAG_STALL,usr</t>
+  </si>
+  <si>
+    <t>INST_RETIRED.ANY_P,usr</t>
   </si>
 </sst>
 </file>
@@ -735,10 +720,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00AE4381-B82F-4894-B849-45A4CFEDDDCA}">
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32:J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -752,292 +737,292 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="20" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="19" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B5" s="19" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="J5" s="19" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A6" s="17" t="s">
-        <v>61</v>
+      <c r="A6" t="s">
+        <v>76</v>
       </c>
       <c r="B6" s="16">
-        <v>796487245.55799997</v>
+        <v>1551273060.911</v>
       </c>
       <c r="C6" s="16">
-        <v>766825857.75300002</v>
+        <v>1516336715.0945001</v>
       </c>
       <c r="D6" s="16">
-        <v>777906219.09500003</v>
+        <v>1505231036.9414999</v>
       </c>
       <c r="E6" s="16">
-        <v>751483306.83150005</v>
+        <v>1473696357.5005</v>
       </c>
       <c r="F6" s="16"/>
       <c r="H6" s="16">
         <f>C6/B6</f>
-        <v>0.96275974540656972</v>
+        <v>0.97747891928453701</v>
       </c>
       <c r="I6" s="16">
         <f>D6/B6</f>
-        <v>0.97667128184835839</v>
+        <v>0.97031984559671169</v>
       </c>
       <c r="J6" s="16">
         <f t="shared" ref="J6:J17" si="0">E6/B6</f>
-        <v>0.94349697502692431</v>
+        <v>0.94999158731929345</v>
       </c>
       <c r="L6" s="16"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A7" s="17" t="s">
-        <v>62</v>
+      <c r="A7" t="s">
+        <v>77</v>
       </c>
       <c r="B7" s="16">
-        <v>325063.46350000001</v>
+        <v>40715831.067000002</v>
       </c>
       <c r="C7" s="16">
-        <v>59234.462500000001</v>
+        <v>8688710.7245000005</v>
       </c>
       <c r="D7" s="16">
-        <v>212865.019</v>
+        <v>30202759.653499998</v>
       </c>
       <c r="E7" s="16">
-        <v>54194.968999999997</v>
+        <v>7973910.0724999998</v>
       </c>
       <c r="F7" s="16"/>
       <c r="H7" s="16">
         <f t="shared" ref="H7:H17" si="1">C7/B7</f>
-        <v>0.18222430125556083</v>
+        <v>0.21339883030269671</v>
       </c>
       <c r="I7" s="16">
         <f t="shared" ref="I7:I17" si="2">D7/B7</f>
-        <v>0.65484141683613106</v>
+        <v>0.74179401137114942</v>
       </c>
       <c r="J7" s="16">
         <f t="shared" si="0"/>
-        <v>0.16672119473679328</v>
+        <v>0.19584298941064274</v>
       </c>
       <c r="L7" s="16"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A8" s="17" t="s">
-        <v>63</v>
+      <c r="A8" t="s">
+        <v>78</v>
       </c>
       <c r="B8" s="16">
-        <v>20877943.837000001</v>
+        <v>1871091.513</v>
       </c>
       <c r="C8" s="16">
-        <v>4515750.8480000002</v>
+        <v>653553.84750000003</v>
       </c>
       <c r="D8" s="16">
-        <v>14619384.566</v>
+        <v>1420825.6295</v>
       </c>
       <c r="E8" s="16">
-        <v>4030061.1965000001</v>
+        <v>474439.25050000002</v>
       </c>
       <c r="F8" s="16"/>
       <c r="H8" s="16">
         <f t="shared" si="1"/>
-        <v>0.21629289183148212</v>
+        <v>0.34929015655259404</v>
       </c>
       <c r="I8" s="16">
         <f t="shared" si="2"/>
-        <v>0.70023105149327247</v>
+        <v>0.75935656787942474</v>
       </c>
       <c r="J8" s="16">
         <f t="shared" si="0"/>
-        <v>0.19302960233842112</v>
+        <v>0.25356282533680652</v>
       </c>
       <c r="L8" s="16"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A9" s="17" t="s">
-        <v>64</v>
+      <c r="A9" t="s">
+        <v>79</v>
       </c>
       <c r="B9" s="16">
-        <v>12008.582</v>
+        <v>16986050.2445</v>
       </c>
       <c r="C9" s="16">
-        <v>4093.1</v>
+        <v>5764950.7165000001</v>
       </c>
       <c r="D9" s="16">
-        <v>8673.3914999999997</v>
+        <v>1180749.4624999999</v>
       </c>
       <c r="E9" s="16">
-        <v>2484.7064999999998</v>
+        <v>332630.49300000002</v>
       </c>
       <c r="F9" s="16"/>
       <c r="H9" s="16">
         <f t="shared" si="1"/>
-        <v>0.34084790360760325</v>
+        <v>0.33939324525233067</v>
       </c>
       <c r="I9" s="16">
         <f t="shared" si="2"/>
-        <v>0.72226608437199324</v>
+        <v>6.9512891196252105E-2</v>
       </c>
       <c r="J9" s="16">
         <f t="shared" si="0"/>
-        <v>0.20691089922190645</v>
+        <v>1.9582568531946037E-2</v>
       </c>
       <c r="L9" s="16"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A10" s="17" t="s">
-        <v>65</v>
+      <c r="A10" t="s">
+        <v>80</v>
       </c>
       <c r="B10" s="16">
-        <v>984439.28700000001</v>
+        <v>135878333.76050001</v>
       </c>
       <c r="C10" s="16">
-        <v>336751.87</v>
+        <v>110060935.454</v>
       </c>
       <c r="D10" s="16">
-        <v>749122.39800000004</v>
+        <v>26723973.9505</v>
       </c>
       <c r="E10" s="16">
-        <v>233805.99299999999</v>
+        <v>43781867.041500002</v>
       </c>
       <c r="F10" s="16"/>
       <c r="H10" s="16">
         <f t="shared" si="1"/>
-        <v>0.3420747977523575</v>
+        <v>0.80999621063939509</v>
       </c>
       <c r="I10" s="16">
         <f t="shared" si="2"/>
-        <v>0.7609635331426996</v>
+        <v>0.19667575551525265</v>
       </c>
       <c r="J10" s="16">
         <f t="shared" si="0"/>
-        <v>0.23750168861353049</v>
+        <v>0.32221374688528481</v>
       </c>
       <c r="L10" s="16"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A11" s="17" t="s">
-        <v>66</v>
+      <c r="A11" t="s">
+        <v>60</v>
       </c>
       <c r="B11" s="16">
-        <v>146671.33350000001</v>
+        <v>1633134837.1355</v>
       </c>
       <c r="C11" s="16">
-        <v>48375.279499999997</v>
+        <v>1524773488.1760001</v>
       </c>
       <c r="D11" s="16">
-        <v>5612.6980000000003</v>
+        <v>1545981493.4749999</v>
       </c>
       <c r="E11" s="16">
-        <v>2904.7429999999999</v>
+        <v>1516808391.598</v>
       </c>
       <c r="F11" s="16"/>
       <c r="H11" s="16">
         <f t="shared" si="1"/>
-        <v>0.32982095645840703</v>
+        <v>0.93364825334963497</v>
       </c>
       <c r="I11" s="16">
         <f t="shared" si="2"/>
-        <v>3.826717781903851E-2</v>
+        <v>0.94663432456479468</v>
       </c>
       <c r="J11" s="16">
         <f t="shared" si="0"/>
-        <v>1.9804435745448511E-2</v>
+        <v>0.92877107089238564</v>
       </c>
       <c r="L11" s="16"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A12" s="17" t="s">
-        <v>67</v>
+      <c r="A12" t="s">
+        <v>61</v>
       </c>
       <c r="B12" s="16">
-        <v>8594040.1539999992</v>
+        <v>1640786628.2414999</v>
       </c>
       <c r="C12" s="16">
-        <v>3060212.8679999998</v>
+        <v>1592814067.7985001</v>
       </c>
       <c r="D12" s="16">
-        <v>462685.40100000001</v>
+        <v>1602656289.0910001</v>
       </c>
       <c r="E12" s="16">
-        <v>252987.1115</v>
+        <v>1604907391.6224999</v>
       </c>
       <c r="F12" s="16"/>
       <c r="H12" s="16">
         <f t="shared" si="1"/>
-        <v>0.35608547472001956</v>
+        <v>0.9707624625790533</v>
       </c>
       <c r="I12" s="16">
         <f t="shared" si="2"/>
-        <v>5.3837938002261755E-2</v>
+        <v>0.97676093984787915</v>
       </c>
       <c r="J12" s="16">
         <f t="shared" si="0"/>
-        <v>2.9437506337720565E-2</v>
+        <v>0.97813290527760255</v>
       </c>
       <c r="L12" s="16"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A13" s="17" t="s">
-        <v>68</v>
+      <c r="A13" t="s">
+        <v>81</v>
       </c>
       <c r="B13" s="16">
-        <v>67270808.754999995</v>
+        <v>1598318904.5125</v>
       </c>
       <c r="C13" s="16">
-        <v>57796529.652000003</v>
+        <v>1552172158.444</v>
       </c>
       <c r="D13" s="16">
-        <v>36244908.563000001</v>
+        <v>1561271645.7939999</v>
       </c>
       <c r="E13" s="16">
-        <v>27199898.5295</v>
+        <v>1564697270.3759999</v>
       </c>
       <c r="F13" s="16"/>
       <c r="H13" s="16">
         <f t="shared" si="1"/>
-        <v>0.85916210495543055</v>
+        <v>0.97112794828477911</v>
       </c>
       <c r="I13" s="16">
         <f t="shared" si="2"/>
-        <v>0.53879103334410339</v>
+        <v>0.97682110959589763</v>
       </c>
       <c r="J13" s="16">
         <f t="shared" si="0"/>
-        <v>0.40433434699086074</v>
+        <v>0.97896437685772419</v>
       </c>
       <c r="L13" s="16"/>
     </row>
@@ -1046,442 +1031,357 @@
         <v>69</v>
       </c>
       <c r="B14" s="16">
-        <v>812223203.10300004</v>
+        <v>524.60500000000002</v>
       </c>
       <c r="C14" s="16">
-        <v>776270198.43299997</v>
+        <v>547.41</v>
       </c>
       <c r="D14" s="16">
-        <v>794163084.38450003</v>
+        <v>543.96500000000003</v>
       </c>
       <c r="E14" s="16">
-        <v>769989658.48699999</v>
+        <v>557.83000000000004</v>
       </c>
       <c r="F14" s="16"/>
       <c r="H14" s="16">
-        <f t="shared" si="1"/>
-        <v>0.95573506822675591</v>
+        <f>B14/C14</f>
+        <v>0.95834018377450181</v>
       </c>
       <c r="I14" s="16">
-        <f t="shared" si="2"/>
-        <v>0.97776458656991883</v>
+        <f>B14/D14</f>
+        <v>0.96440947487430251</v>
       </c>
       <c r="J14" s="16">
-        <f t="shared" si="0"/>
-        <v>0.94800253864374728</v>
+        <f>B14/E14</f>
+        <v>0.94043884337522177</v>
       </c>
       <c r="L14" s="16"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A15" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="B15" s="16">
-        <v>805772231.34949994</v>
-      </c>
-      <c r="C15" s="16">
-        <v>802173516.47549999</v>
-      </c>
-      <c r="D15" s="16">
-        <v>802265026.9375</v>
-      </c>
-      <c r="E15" s="16">
-        <v>803869256.10749996</v>
-      </c>
+      <c r="A15" s="17"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
       <c r="F15" s="16"/>
-      <c r="H15" s="16">
-        <f t="shared" si="1"/>
-        <v>0.99553383110761606</v>
-      </c>
-      <c r="I15" s="16">
-        <f t="shared" si="2"/>
-        <v>0.99564739975448635</v>
-      </c>
-      <c r="J15" s="16">
-        <f t="shared" si="0"/>
-        <v>0.99763832114341677</v>
-      </c>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
       <c r="L15" s="16"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A16" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="B16" s="16">
-        <v>784416685.66349995</v>
-      </c>
-      <c r="C16" s="16">
-        <v>781713877.14300001</v>
-      </c>
-      <c r="D16" s="16">
-        <v>781683614.42449999</v>
-      </c>
-      <c r="E16" s="16">
-        <v>783069313.63450003</v>
-      </c>
+      <c r="A16" s="17"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
       <c r="F16" s="16"/>
-      <c r="H16" s="16">
-        <f t="shared" si="1"/>
-        <v>0.99655437145856507</v>
-      </c>
-      <c r="I16" s="16">
-        <f t="shared" si="2"/>
-        <v>0.99651579155702408</v>
-      </c>
-      <c r="J16" s="16">
-        <f t="shared" si="0"/>
-        <v>0.99828232614932166</v>
-      </c>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
       <c r="L16" s="16"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A17" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="B17" s="16">
-        <v>64703915.783</v>
-      </c>
-      <c r="C17" s="16">
-        <v>61237046.626999997</v>
-      </c>
-      <c r="D17" s="16">
-        <v>64489431.559</v>
-      </c>
-      <c r="E17" s="16">
-        <v>59625922.027000003</v>
-      </c>
+      <c r="A17" s="18"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
       <c r="F17" s="16"/>
-      <c r="H17" s="16">
-        <f t="shared" si="1"/>
-        <v>0.94641948460079328</v>
-      </c>
-      <c r="I17" s="16">
-        <f t="shared" si="2"/>
-        <v>0.99668514306430356</v>
-      </c>
-      <c r="J17" s="16">
-        <f t="shared" si="0"/>
-        <v>0.9215195294666515</v>
-      </c>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
       <c r="L17" s="16"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A18" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="B18" s="16">
-        <v>776.57500000000005</v>
-      </c>
-      <c r="C18" s="16">
-        <v>809.25</v>
-      </c>
-      <c r="D18" s="16">
-        <v>785.45</v>
-      </c>
-      <c r="E18" s="16">
-        <v>815.18499999999995</v>
-      </c>
-      <c r="F18" s="16"/>
-      <c r="H18" s="16">
-        <f>B18/C18</f>
-        <v>0.95962310781587901</v>
-      </c>
-      <c r="I18" s="16">
-        <f>B18/D18</f>
-        <v>0.9887007447959768</v>
-      </c>
-      <c r="J18" s="16">
-        <f>B18/E18</f>
-        <v>0.9526365180909856</v>
-      </c>
       <c r="L18" s="16"/>
     </row>
     <row r="20" spans="1:12" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="21" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A21" s="17" t="s">
-        <v>60</v>
+      <c r="A21" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A23" s="19"/>
       <c r="B23" s="19" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="F23" s="19"/>
       <c r="H23" s="19" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="I23" s="19" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="J23" s="19" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="L23" s="19"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A24" s="17" t="s">
-        <v>61</v>
+      <c r="A24" t="s">
+        <v>76</v>
       </c>
       <c r="B24" s="16">
-        <v>1004634992.89625</v>
+        <v>1998658280.0634301</v>
       </c>
       <c r="C24" s="16">
-        <v>954998721.48249996</v>
+        <v>1884104966.5237501</v>
       </c>
       <c r="D24" s="16">
-        <v>986894039.93562496</v>
+        <v>1978577972.10531</v>
       </c>
       <c r="E24" s="16">
-        <v>940301616.99187505</v>
+        <v>1887774544.3328099</v>
       </c>
       <c r="F24" s="16"/>
       <c r="H24" s="16">
         <f t="shared" ref="H24:H35" si="3">C24/B24</f>
-        <v>0.95059273092742447</v>
+        <v>0.94268489281917445</v>
       </c>
       <c r="I24" s="16">
         <f t="shared" ref="I24:I35" si="4">D24/B24</f>
-        <v>0.98234089685699688</v>
+        <v>0.98995310596192421</v>
       </c>
       <c r="J24" s="16">
         <f t="shared" ref="J24:J35" si="5">E24/B24</f>
-        <v>0.9359634331281762</v>
+        <v>0.9445209134364374</v>
       </c>
       <c r="L24" s="16"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A25" s="17" t="s">
-        <v>62</v>
+      <c r="A25" t="s">
+        <v>77</v>
       </c>
       <c r="B25" s="16">
-        <v>932171.16749999998</v>
+        <v>95471868.693124995</v>
       </c>
       <c r="C25" s="16">
-        <v>23272.638749999998</v>
+        <v>2867630.5165630002</v>
       </c>
       <c r="D25" s="16">
-        <v>877853.35624999995</v>
+        <v>88783582.809062004</v>
       </c>
       <c r="E25" s="16">
-        <v>13635.615</v>
+        <v>1521575.1243749999</v>
       </c>
       <c r="F25" s="16"/>
       <c r="H25" s="16">
         <f t="shared" si="3"/>
-        <v>2.4966057266515913E-2</v>
+        <v>3.0036392455880571E-2</v>
       </c>
       <c r="I25" s="16">
         <f t="shared" si="4"/>
-        <v>0.94172978832237908</v>
+        <v>0.92994495681695377</v>
       </c>
       <c r="J25" s="16">
         <f t="shared" si="5"/>
-        <v>1.4627801712178574E-2</v>
+        <v>1.5937418479424502E-2</v>
       </c>
       <c r="L25" s="16"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A26" s="17" t="s">
-        <v>63</v>
+      <c r="A26" t="s">
+        <v>78</v>
       </c>
       <c r="B26" s="16">
-        <v>47433019.658749998</v>
+        <v>3622480.2303129998</v>
       </c>
       <c r="C26" s="16">
-        <v>1619882.3525</v>
+        <v>984319.51843699999</v>
       </c>
       <c r="D26" s="16">
-        <v>45115197.759999998</v>
+        <v>3333920.8728129999</v>
       </c>
       <c r="E26" s="16">
-        <v>1200854.4550000001</v>
+        <v>478276.46687499998</v>
       </c>
       <c r="F26" s="16"/>
       <c r="H26" s="16">
         <f t="shared" si="3"/>
-        <v>3.4150943038288716E-2</v>
+        <v>0.27172529754619257</v>
       </c>
       <c r="I26" s="16">
         <f t="shared" si="4"/>
-        <v>0.95113484413547289</v>
+        <v>0.92034204767072891</v>
       </c>
       <c r="J26" s="16">
         <f t="shared" si="5"/>
-        <v>2.531684602075461E-2</v>
+        <v>0.13203011099212392</v>
       </c>
       <c r="L26" s="16"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A27" s="17" t="s">
-        <v>64</v>
+      <c r="A27" t="s">
+        <v>79</v>
       </c>
       <c r="B27" s="16">
-        <v>29419.079375000001</v>
+        <v>9583044.796875</v>
       </c>
       <c r="C27" s="16">
-        <v>7519.6168749999997</v>
+        <v>2362508.3725000001</v>
       </c>
       <c r="D27" s="16">
-        <v>26906.801875000001</v>
+        <v>2914273.7112500002</v>
       </c>
       <c r="E27" s="16">
-        <v>4591.6793749999997</v>
+        <v>285642.35499999998</v>
       </c>
       <c r="F27" s="16"/>
       <c r="H27" s="16">
         <f t="shared" si="3"/>
-        <v>0.25560340550255573</v>
+        <v>0.24653003534642834</v>
       </c>
       <c r="I27" s="16">
         <f t="shared" si="4"/>
-        <v>0.91460380292746668</v>
+        <v>0.30410728249964308</v>
       </c>
       <c r="J27" s="16">
         <f t="shared" si="5"/>
-        <v>0.15607828227629572</v>
+        <v>2.980705621799316E-2</v>
       </c>
       <c r="L27" s="16"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A28" s="17" t="s">
-        <v>65</v>
+      <c r="A28" t="s">
+        <v>80</v>
       </c>
       <c r="B28" s="16">
-        <v>1730469.8025</v>
+        <v>70190997.480312005</v>
       </c>
       <c r="C28" s="16">
-        <v>485031.66499999998</v>
+        <v>75235207.246875003</v>
       </c>
       <c r="D28" s="16">
-        <v>1535221.9412499999</v>
+        <v>8675697.3784379996</v>
       </c>
       <c r="E28" s="16">
-        <v>241848.86499999999</v>
+        <v>16071703.828125</v>
       </c>
       <c r="F28" s="16"/>
       <c r="H28" s="16">
         <f t="shared" si="3"/>
-        <v>0.28028900839487486</v>
+        <v>1.0718640558994457</v>
       </c>
       <c r="I28" s="16">
         <f t="shared" si="4"/>
-        <v>0.88717060478725107</v>
+        <v>0.12360128349609878</v>
       </c>
       <c r="J28" s="16">
         <f t="shared" si="5"/>
-        <v>0.13975907851763855</v>
+        <v>0.2289710134498798</v>
       </c>
       <c r="L28" s="16"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A29" s="17" t="s">
-        <v>66</v>
+      <c r="A29" t="s">
+        <v>60</v>
       </c>
       <c r="B29" s="16">
-        <v>92931.378125000003</v>
+        <v>2007905077.6312499</v>
       </c>
       <c r="C29" s="16">
-        <v>19701.501250000001</v>
+        <v>1975615973.405</v>
       </c>
       <c r="D29" s="16">
-        <v>13614.727500000001</v>
+        <v>2026184024.9868701</v>
       </c>
       <c r="E29" s="16">
-        <v>4187.8337499999998</v>
+        <v>1942151542.4349999</v>
       </c>
       <c r="F29" s="16"/>
       <c r="H29" s="16">
         <f t="shared" si="3"/>
-        <v>0.21200052821233248</v>
+        <v>0.9839190086294608</v>
       </c>
       <c r="I29" s="16">
         <f t="shared" si="4"/>
-        <v>0.14650301948268887</v>
+        <v>1.0091034917732187</v>
       </c>
       <c r="J29" s="16">
         <f t="shared" si="5"/>
-        <v>4.5063721581391318E-2</v>
+        <v>0.96725266750467098</v>
       </c>
       <c r="L29" s="16"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A30" s="17" t="s">
-        <v>67</v>
+      <c r="A30" t="s">
+        <v>61</v>
       </c>
       <c r="B30" s="16">
-        <v>5014041.3387500001</v>
+        <v>2475235075.9331198</v>
       </c>
       <c r="C30" s="16">
-        <v>1239456.130625</v>
+        <v>2536606527.32093</v>
       </c>
       <c r="D30" s="16">
-        <v>817072.56874999998</v>
+        <v>2506820482.1178098</v>
       </c>
       <c r="E30" s="16">
-        <v>279641.88312499999</v>
+        <v>2484748857.7937498</v>
       </c>
       <c r="F30" s="16"/>
       <c r="H30" s="16">
         <f t="shared" si="3"/>
-        <v>0.24719703067585722</v>
+        <v>1.0247941910586711</v>
       </c>
       <c r="I30" s="16">
         <f t="shared" si="4"/>
-        <v>0.16295688717909454</v>
+        <v>1.0127605682756344</v>
       </c>
       <c r="J30" s="16">
         <f t="shared" si="5"/>
-        <v>5.5771754605181349E-2</v>
+        <v>1.0038435872023361</v>
       </c>
       <c r="L30" s="16"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A31" s="17" t="s">
-        <v>68</v>
+      <c r="A31" t="s">
+        <v>81</v>
       </c>
       <c r="B31" s="16">
-        <v>36568451.625624999</v>
+        <v>2425530108.4484301</v>
       </c>
       <c r="C31" s="16">
-        <v>31027505.238125</v>
+        <v>2489359398.9840598</v>
       </c>
       <c r="D31" s="16">
-        <v>3129710.6412499999</v>
+        <v>2455354957.0293698</v>
       </c>
       <c r="E31" s="16">
-        <v>2478523.7106249998</v>
+        <v>2438590213.06812</v>
       </c>
       <c r="F31" s="16"/>
       <c r="H31" s="16">
         <f t="shared" si="3"/>
-        <v>0.84847741314764247</v>
+        <v>1.026315604293389</v>
       </c>
       <c r="I31" s="16">
         <f t="shared" si="4"/>
-        <v>8.5584992038790192E-2</v>
+        <v>1.0122962186604305</v>
       </c>
       <c r="J31" s="16">
         <f t="shared" si="5"/>
-        <v>6.7777649871513773E-2</v>
+        <v>1.0053844331077153</v>
       </c>
       <c r="L31" s="16"/>
     </row>
@@ -1490,153 +1390,54 @@
         <v>69</v>
       </c>
       <c r="B32" s="16">
-        <v>1011876778.13</v>
+        <v>414.315</v>
       </c>
       <c r="C32" s="16">
-        <v>943723171.28125</v>
+        <v>439.27499999999998</v>
       </c>
       <c r="D32" s="16">
-        <v>1031120716.32687</v>
+        <v>415.8</v>
       </c>
       <c r="E32" s="16">
-        <v>961918051.78687501</v>
-      </c>
-      <c r="F32" s="16"/>
+        <v>439.69499999999999</v>
+      </c>
       <c r="H32" s="16">
-        <f t="shared" si="3"/>
-        <v>0.93264633765516258</v>
+        <f>B32/C32</f>
+        <v>0.94317910192931542</v>
       </c>
       <c r="I32" s="16">
-        <f t="shared" si="4"/>
-        <v>1.0190180648600651</v>
+        <f>B32/D32</f>
+        <v>0.99642857142857144</v>
       </c>
       <c r="J32" s="16">
-        <f t="shared" si="5"/>
-        <v>0.95062765800846694</v>
+        <f>B32/E32</f>
+        <v>0.94227817009517967</v>
       </c>
       <c r="L32" s="16"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A33" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="B33" s="16">
-        <v>1224242702.7581201</v>
-      </c>
-      <c r="C33" s="16">
-        <v>1206021703.6524999</v>
-      </c>
-      <c r="D33" s="16">
-        <v>1269488433.83687</v>
-      </c>
-      <c r="E33" s="16">
-        <v>1239889035.55562</v>
-      </c>
+      <c r="A33" s="17"/>
       <c r="F33" s="16"/>
-      <c r="H33" s="16">
-        <f t="shared" si="3"/>
-        <v>0.98511651401754763</v>
-      </c>
-      <c r="I33" s="16">
-        <f t="shared" si="4"/>
-        <v>1.0369581382652435</v>
-      </c>
-      <c r="J33" s="16">
-        <f t="shared" si="5"/>
-        <v>1.0127804174468429</v>
-      </c>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
       <c r="L33" s="16"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A34" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="B34" s="16">
-        <v>1202245970.7925</v>
-      </c>
-      <c r="C34" s="16">
-        <v>1185449199.1012499</v>
-      </c>
-      <c r="D34" s="16">
-        <v>1247077626.4712501</v>
-      </c>
-      <c r="E34" s="16">
-        <v>1219570112.0293701</v>
-      </c>
+      <c r="A34" s="17"/>
       <c r="F34" s="16"/>
-      <c r="H34" s="16">
-        <f t="shared" si="3"/>
-        <v>0.98602883927306662</v>
-      </c>
-      <c r="I34" s="16">
-        <f t="shared" si="4"/>
-        <v>1.0372899196735903</v>
-      </c>
-      <c r="J34" s="16">
-        <f t="shared" si="5"/>
-        <v>1.0144098143456037</v>
-      </c>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
       <c r="L34" s="16"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A35" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="B35" s="16">
-        <v>43277187.178125001</v>
-      </c>
-      <c r="C35" s="16">
-        <v>38856062.791874997</v>
-      </c>
-      <c r="D35" s="16">
-        <v>44547069.221874997</v>
-      </c>
-      <c r="E35" s="16">
-        <v>35861547.723750003</v>
-      </c>
+      <c r="A35" s="18"/>
       <c r="F35" s="16"/>
-      <c r="H35" s="16">
-        <f t="shared" si="3"/>
-        <v>0.89784168809185649</v>
-      </c>
-      <c r="I35" s="16">
-        <f t="shared" si="4"/>
-        <v>1.0293429893796766</v>
-      </c>
-      <c r="J35" s="16">
-        <f t="shared" si="5"/>
-        <v>0.82864784109344036</v>
-      </c>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
       <c r="L35" s="16"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A36" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="B36" s="16">
-        <v>776.57500000000005</v>
-      </c>
-      <c r="C36" s="16">
-        <v>809.25</v>
-      </c>
-      <c r="D36" s="16">
-        <v>785.45</v>
-      </c>
-      <c r="E36" s="16">
-        <v>815.18499999999995</v>
-      </c>
-      <c r="H36" s="16">
-        <f>B36/C36</f>
-        <v>0.95962310781587901</v>
-      </c>
-      <c r="I36" s="16">
-        <f>B36/D36</f>
-        <v>0.9887007447959768</v>
-      </c>
-      <c r="J36" s="16">
-        <f>B36/E36</f>
-        <v>0.9526365180909856</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/java.xlsx
+++ b/java.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/29e1f5b82a02f9e3/Paper/git_hub/shared_ptp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xdong\OneDrive\Paper\git_hub\shared_ptp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="141" documentId="11_33E97E01793A7F03B72BD9B8ECDFDE0FC9F8CBB3" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{DF91B071-7AF1-4441-B844-51F88D12E9D4}"/>
+  <xr:revisionPtr revIDLastSave="143" documentId="11_33E97E01793A7F03B72BD9B8ECDFDE0FC9F8CBB3" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{DDFC314C-43BB-4329-93E1-5AFFC5EADBDA}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -722,8 +722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00AE4381-B82F-4894-B849-45A4CFEDDDCA}">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32:J32"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A29" activeCellId="1" sqref="A24:E24 A29:E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -804,7 +804,7 @@
         <v>0.97031984559671169</v>
       </c>
       <c r="J6" s="16">
-        <f t="shared" ref="J6:J17" si="0">E6/B6</f>
+        <f t="shared" ref="J6:J13" si="0">E6/B6</f>
         <v>0.94999158731929345</v>
       </c>
       <c r="L6" s="16"/>
@@ -827,11 +827,11 @@
       </c>
       <c r="F7" s="16"/>
       <c r="H7" s="16">
-        <f t="shared" ref="H7:H17" si="1">C7/B7</f>
+        <f t="shared" ref="H7:H13" si="1">C7/B7</f>
         <v>0.21339883030269671</v>
       </c>
       <c r="I7" s="16">
-        <f t="shared" ref="I7:I17" si="2">D7/B7</f>
+        <f t="shared" ref="I7:I13" si="2">D7/B7</f>
         <v>0.74179401137114942</v>
       </c>
       <c r="J7" s="16">
@@ -1155,15 +1155,15 @@
       </c>
       <c r="F24" s="16"/>
       <c r="H24" s="16">
-        <f t="shared" ref="H24:H35" si="3">C24/B24</f>
+        <f t="shared" ref="H24:H31" si="3">C24/B24</f>
         <v>0.94268489281917445</v>
       </c>
       <c r="I24" s="16">
-        <f t="shared" ref="I24:I35" si="4">D24/B24</f>
+        <f t="shared" ref="I24:I31" si="4">D24/B24</f>
         <v>0.98995310596192421</v>
       </c>
       <c r="J24" s="16">
-        <f t="shared" ref="J24:J35" si="5">E24/B24</f>
+        <f t="shared" ref="J24:J31" si="5">E24/B24</f>
         <v>0.9445209134364374</v>
       </c>
       <c r="L24" s="16"/>
